--- a/Projects 2023/Standard Chartered Bank/BOQ/Running Bill No 1 ACMV Works (Mezz + Ground Floor).xlsx
+++ b/Projects 2023/Standard Chartered Bank/BOQ/Running Bill No 1 ACMV Works (Mezz + Ground Floor).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Pioneer\Projects 2023\Standard Chartered Bank\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E708E076-A0D2-4506-93AC-43FC9845A032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1768A7EB-23E9-485C-86EB-F2FD35BF6531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="602" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMM" sheetId="48" r:id="rId1"/>
@@ -1303,7 +1303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="135">
   <si>
     <t>Job.</t>
   </si>
@@ -1654,60 +1654,10 @@
     <t>Variation amount (04 Nos)</t>
   </si>
   <si>
-    <t>M/S Total Construction Pvt Ltd.</t>
-  </si>
-  <si>
-    <t>Project: Standard Chartered Bank Karachi</t>
-  </si>
-  <si>
-    <t>Variation Order No 1</t>
-  </si>
-  <si>
-    <t>Variation order for Fresh Air DX Unit - Standard Chartered Bank I.I Chundiger Rd Karachi</t>
-  </si>
-  <si>
     <t>S. #</t>
   </si>
   <si>
-    <t>Material Rate</t>
-  </si>
-  <si>
-    <t>Labour Rate</t>
-  </si>
-  <si>
-    <t>OPT 25%</t>
-  </si>
-  <si>
-    <t>Supply and installation of Air cooled Fresh Air DX Air handling Unit.
-CFM: 1800 
-Cooling capacity: 7.6 Tr
-Make: Uni-Air</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Conduiting, wiring &amp; control wiring.</t>
-  </si>
-  <si>
     <t>Job</t>
-  </si>
-  <si>
-    <t>Hanging &amp; supports.</t>
-  </si>
-  <si>
-    <t>Total Amount Rs.</t>
-  </si>
-  <si>
-    <t>Variation Order No 2</t>
-  </si>
-  <si>
-    <t>Variation order for Propeller type Fan - Standard Chartered Bank I.I Chundiger Rd Karachi</t>
-  </si>
-  <si>
-    <t>Supply and installation of propeller type wall mounted Fan with Auto shutter. 
-CFM: 247
-Make: BVN</t>
   </si>
   <si>
     <t>Dated:</t>
@@ -1787,23 +1737,63 @@
   <si>
     <t>Grand Total Price</t>
   </si>
+  <si>
+    <t>Application of Painting</t>
+  </si>
+  <si>
+    <t>Rft</t>
+  </si>
+  <si>
+    <t>Installation of MS Angle iron support  size of 2''x 2'' .</t>
+  </si>
+  <si>
+    <t>Installation of MS C-Channel support  size of 3''x 1 1/2''.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Providing of Paint </t>
+  </si>
+  <si>
+    <t>Supply of MS Angle iron support  size of 2''x 2'' .</t>
+  </si>
+  <si>
+    <t>Supply of MS C-Channel support  size of 3''x 1 1/2''.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rate Analysis of  Channel support For Outdoor unit plateform</t>
+  </si>
+  <si>
+    <t>Installation of Exhaust Fans</t>
+  </si>
+  <si>
+    <t>Supply of Exhaust fans</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rate Analysis of  Exhaust Fans</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="General_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="General_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1954,56 +1944,8 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2096,7 +2038,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="75">
+  <borders count="74">
     <border>
       <left/>
       <right/>
@@ -3007,1192 +2949,1122 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="424">
+  <cellXfs count="405">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="2" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="3" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="12" fontId="2" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="3" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="30" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="30" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="38" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="23" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="23" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="23" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="23" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="40" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="40" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="2" fillId="0" borderId="26" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="3" fillId="0" borderId="26" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="29" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="29" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="43" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="43" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="44" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="44" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="44" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="44" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="3" borderId="44" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="45" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="45" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="47" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="47" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="48" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="48" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="47" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="47" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="47" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="48" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="47" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="47" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="48" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="48" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="49" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="49" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="50" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="50" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="50" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="51" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="4" borderId="51" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="53" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="53" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="53" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="53" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="53" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="53" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="54" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="54" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="59" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="59" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="19" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="19" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="19" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="19" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="60" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="60" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="4" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="5" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="5" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="61" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="61" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="26" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="26" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="37" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="37" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="37" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="37" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="62" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="62" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="63" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="39" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="64" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="64" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="65" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="26" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="37" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="62" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="63" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="39" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="64" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="64" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="65" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="26" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="37" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="62" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="66" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="66" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="67" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="67" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="13" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="16" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="14" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="13" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="16" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="14" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="68" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="68" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="61" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="61" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="27" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="27" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="61" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="37" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="61" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="37" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="70" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="70" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="71" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="64" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="71" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="64" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="39" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="39" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="72" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="72" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="65" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="65" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="68" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="68" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="22" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="17" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="22" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="17" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="73" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="73" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="73" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="73" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="56" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="56" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="27" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="53" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="69" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="44" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="44" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="31" fillId="0" borderId="44" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="44" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="44" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="0" borderId="44" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="44" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="27" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="53" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="44" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="0" borderId="44" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="44" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="44" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="44" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="44" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="31" fillId="0" borderId="44" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="30" fillId="0" borderId="44" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="30" fillId="0" borderId="44" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="44" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="55" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="55" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="44" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="44" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="55" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="32" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="35" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="44" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="34" fillId="0" borderId="44" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="34" fillId="0" borderId="44" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="36" fillId="0" borderId="44" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="44" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="36" fillId="0" borderId="44" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="169" fontId="31" fillId="6" borderId="44" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="31" fillId="6" borderId="44" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="44" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="44" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="36" fillId="0" borderId="44" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="36" fillId="0" borderId="44" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="44" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="44" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="44" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="35" fillId="0" borderId="44" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="69" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="35" fillId="0" borderId="44" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="44" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="44" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="44" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="44" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="44" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="36" fillId="0" borderId="44" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="44" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="36" fillId="0" borderId="44" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="36" fillId="0" borderId="44" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="44" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="44" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="44" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="44" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="36" fillId="6" borderId="44" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="36" fillId="6" borderId="44" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="35" fillId="0" borderId="44" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="36" fillId="0" borderId="44" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="44" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="44" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="44" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="0" borderId="44" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18660,8 +18532,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18676,26 +18548,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="325" t="s">
+      <c r="A1" s="376" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="325"/>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
       <c r="F1" s="181"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="326"/>
-      <c r="B2" s="327"/>
+      <c r="A2" s="377"/>
+      <c r="B2" s="378"/>
       <c r="C2" s="183"/>
       <c r="D2" s="183"/>
       <c r="E2" s="184"/>
       <c r="F2" s="184"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="326"/>
-      <c r="B3" s="327"/>
+      <c r="A3" s="377"/>
+      <c r="B3" s="378"/>
       <c r="C3" s="183"/>
       <c r="D3" s="183"/>
       <c r="E3" s="185"/>
@@ -18795,8 +18667,8 @@
       <c r="C10" s="202"/>
       <c r="D10" s="202"/>
       <c r="E10" s="197">
-        <f>Variation!I96</f>
-        <v>5557700</v>
+        <f>Variation!I124</f>
+        <v>1119473.2</v>
       </c>
       <c r="F10" s="198"/>
     </row>
@@ -18817,7 +18689,7 @@
       <c r="D12" s="205"/>
       <c r="E12" s="206">
         <f>E10+E8+E6</f>
-        <v>15258303.174999999</v>
+        <v>10820076.375</v>
       </c>
       <c r="F12" s="207"/>
     </row>
@@ -18972,19 +18844,19 @@
       <c r="G7" s="228" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="330" t="s">
+      <c r="H7" s="381" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="330"/>
-      <c r="J7" s="330"/>
-      <c r="K7" s="330"/>
-      <c r="L7" s="330"/>
+      <c r="I7" s="381"/>
+      <c r="J7" s="381"/>
+      <c r="K7" s="381"/>
+      <c r="L7" s="381"/>
     </row>
     <row r="8" spans="1:12" s="29" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="331" t="s">
+      <c r="A8" s="382" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="332"/>
+      <c r="B8" s="383"/>
       <c r="C8" s="8" t="s">
         <v>76</v>
       </c>
@@ -19689,7 +19561,7 @@
         <f t="shared" si="6"/>
         <v>5.48</v>
       </c>
-      <c r="K27" s="337">
+      <c r="K27" s="325">
         <f t="shared" si="7"/>
         <v>3709.9600000000005</v>
       </c>
@@ -20718,73 +20590,73 @@
       <c r="A61" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="328" t="s">
+      <c r="B61" s="379" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="329"/>
-      <c r="D61" s="329"/>
-      <c r="E61" s="329"/>
-      <c r="F61" s="329"/>
-      <c r="G61" s="329"/>
-      <c r="H61" s="329"/>
-      <c r="I61" s="329"/>
-      <c r="J61" s="329"/>
-      <c r="K61" s="329"/>
-      <c r="L61" s="329"/>
+      <c r="C61" s="380"/>
+      <c r="D61" s="380"/>
+      <c r="E61" s="380"/>
+      <c r="F61" s="380"/>
+      <c r="G61" s="380"/>
+      <c r="H61" s="380"/>
+      <c r="I61" s="380"/>
+      <c r="J61" s="380"/>
+      <c r="K61" s="380"/>
+      <c r="L61" s="380"/>
     </row>
     <row r="62" spans="1:12" s="51" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="328" t="s">
+      <c r="B62" s="379" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="329"/>
-      <c r="D62" s="329"/>
-      <c r="E62" s="329"/>
-      <c r="F62" s="329"/>
-      <c r="G62" s="329"/>
-      <c r="H62" s="329"/>
-      <c r="I62" s="329"/>
-      <c r="J62" s="329"/>
-      <c r="K62" s="329"/>
-      <c r="L62" s="329"/>
+      <c r="C62" s="380"/>
+      <c r="D62" s="380"/>
+      <c r="E62" s="380"/>
+      <c r="F62" s="380"/>
+      <c r="G62" s="380"/>
+      <c r="H62" s="380"/>
+      <c r="I62" s="380"/>
+      <c r="J62" s="380"/>
+      <c r="K62" s="380"/>
+      <c r="L62" s="380"/>
     </row>
     <row r="63" spans="1:12" s="51" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="328" t="s">
+      <c r="B63" s="379" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="328"/>
-      <c r="D63" s="328"/>
-      <c r="E63" s="328"/>
-      <c r="F63" s="328"/>
-      <c r="G63" s="328"/>
-      <c r="H63" s="328"/>
-      <c r="I63" s="328"/>
-      <c r="J63" s="328"/>
-      <c r="K63" s="328"/>
-      <c r="L63" s="328"/>
+      <c r="C63" s="379"/>
+      <c r="D63" s="379"/>
+      <c r="E63" s="379"/>
+      <c r="F63" s="379"/>
+      <c r="G63" s="379"/>
+      <c r="H63" s="379"/>
+      <c r="I63" s="379"/>
+      <c r="J63" s="379"/>
+      <c r="K63" s="379"/>
+      <c r="L63" s="379"/>
     </row>
     <row r="64" spans="1:12" s="51" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="328" t="s">
+      <c r="B64" s="379" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="328"/>
-      <c r="D64" s="328"/>
-      <c r="E64" s="328"/>
-      <c r="F64" s="328"/>
-      <c r="G64" s="328"/>
-      <c r="H64" s="328"/>
-      <c r="I64" s="328"/>
-      <c r="J64" s="328"/>
-      <c r="K64" s="328"/>
-      <c r="L64" s="328"/>
+      <c r="C64" s="379"/>
+      <c r="D64" s="379"/>
+      <c r="E64" s="379"/>
+      <c r="F64" s="379"/>
+      <c r="G64" s="379"/>
+      <c r="H64" s="379"/>
+      <c r="I64" s="379"/>
+      <c r="J64" s="379"/>
+      <c r="K64" s="379"/>
+      <c r="L64" s="379"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -20944,19 +20816,19 @@
       <c r="G7" s="237" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="333" t="s">
+      <c r="H7" s="384" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="334"/>
-      <c r="J7" s="334"/>
-      <c r="K7" s="334"/>
-      <c r="L7" s="335"/>
+      <c r="I7" s="385"/>
+      <c r="J7" s="385"/>
+      <c r="K7" s="385"/>
+      <c r="L7" s="386"/>
     </row>
     <row r="8" spans="1:12" s="29" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="336" t="s">
+      <c r="A8" s="387" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="336"/>
+      <c r="B8" s="387"/>
       <c r="C8" s="256" t="s">
         <v>76</v>
       </c>
@@ -21566,7 +21438,7 @@
       <c r="G26" s="231">
         <v>3076</v>
       </c>
-      <c r="H26" s="338"/>
+      <c r="H26" s="326"/>
       <c r="I26" s="231">
         <f t="shared" ref="I26:I28" si="16">H26*F26</f>
         <v>0</v>
@@ -21772,73 +21644,73 @@
       <c r="A35" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="328" t="s">
+      <c r="B35" s="379" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="329"/>
-      <c r="D35" s="329"/>
-      <c r="E35" s="329"/>
-      <c r="F35" s="329"/>
-      <c r="G35" s="329"/>
-      <c r="H35" s="329"/>
-      <c r="I35" s="329"/>
-      <c r="J35" s="329"/>
-      <c r="K35" s="329"/>
-      <c r="L35" s="329"/>
+      <c r="C35" s="380"/>
+      <c r="D35" s="380"/>
+      <c r="E35" s="380"/>
+      <c r="F35" s="380"/>
+      <c r="G35" s="380"/>
+      <c r="H35" s="380"/>
+      <c r="I35" s="380"/>
+      <c r="J35" s="380"/>
+      <c r="K35" s="380"/>
+      <c r="L35" s="380"/>
     </row>
     <row r="36" spans="1:12" s="51" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="328" t="s">
+      <c r="B36" s="379" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="329"/>
-      <c r="D36" s="329"/>
-      <c r="E36" s="329"/>
-      <c r="F36" s="329"/>
-      <c r="G36" s="329"/>
-      <c r="H36" s="329"/>
-      <c r="I36" s="329"/>
-      <c r="J36" s="329"/>
-      <c r="K36" s="329"/>
-      <c r="L36" s="329"/>
+      <c r="C36" s="380"/>
+      <c r="D36" s="380"/>
+      <c r="E36" s="380"/>
+      <c r="F36" s="380"/>
+      <c r="G36" s="380"/>
+      <c r="H36" s="380"/>
+      <c r="I36" s="380"/>
+      <c r="J36" s="380"/>
+      <c r="K36" s="380"/>
+      <c r="L36" s="380"/>
     </row>
     <row r="37" spans="1:12" s="51" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="328" t="s">
+      <c r="B37" s="379" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="328"/>
-      <c r="D37" s="328"/>
-      <c r="E37" s="328"/>
-      <c r="F37" s="328"/>
-      <c r="G37" s="328"/>
-      <c r="H37" s="328"/>
-      <c r="I37" s="328"/>
-      <c r="J37" s="328"/>
-      <c r="K37" s="328"/>
-      <c r="L37" s="328"/>
+      <c r="C37" s="379"/>
+      <c r="D37" s="379"/>
+      <c r="E37" s="379"/>
+      <c r="F37" s="379"/>
+      <c r="G37" s="379"/>
+      <c r="H37" s="379"/>
+      <c r="I37" s="379"/>
+      <c r="J37" s="379"/>
+      <c r="K37" s="379"/>
+      <c r="L37" s="379"/>
     </row>
     <row r="38" spans="1:12" s="51" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="328" t="s">
+      <c r="B38" s="379" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="328"/>
-      <c r="D38" s="328"/>
-      <c r="E38" s="328"/>
-      <c r="F38" s="328"/>
-      <c r="G38" s="328"/>
-      <c r="H38" s="328"/>
-      <c r="I38" s="328"/>
-      <c r="J38" s="328"/>
-      <c r="K38" s="328"/>
-      <c r="L38" s="328"/>
+      <c r="C38" s="379"/>
+      <c r="D38" s="379"/>
+      <c r="E38" s="379"/>
+      <c r="F38" s="379"/>
+      <c r="G38" s="379"/>
+      <c r="H38" s="379"/>
+      <c r="I38" s="379"/>
+      <c r="J38" s="379"/>
+      <c r="K38" s="379"/>
+      <c r="L38" s="379"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -21860,10 +21732,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC03246-79C6-4AB1-B91E-EA850B8CB0A0}">
-  <dimension ref="A2:M96"/>
+  <dimension ref="A3:M124"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="L98" sqref="L98"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21874,624 +21746,727 @@
     <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="340" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="339" t="s">
+    <row r="3" spans="1:13" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="328" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="329">
+        <v>45224</v>
+      </c>
+      <c r="C3" s="330"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="330"/>
+      <c r="F3" s="330"/>
+      <c r="G3" s="330"/>
+      <c r="H3" s="330"/>
+      <c r="I3" s="330"/>
+    </row>
+    <row r="4" spans="1:13" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="332" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="330"/>
+      <c r="D4" s="330"/>
+      <c r="E4" s="330"/>
+      <c r="F4" s="330"/>
+      <c r="G4" s="330"/>
+    </row>
+    <row r="5" spans="1:13" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="328" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="332"/>
+      <c r="C5" s="330"/>
+      <c r="D5" s="330"/>
+      <c r="E5" s="330"/>
+      <c r="F5" s="330"/>
+      <c r="G5" s="330"/>
+    </row>
+    <row r="6" spans="1:13" s="331" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="332"/>
+      <c r="B6" s="332"/>
+      <c r="C6" s="395"/>
+      <c r="D6" s="396"/>
+      <c r="E6" s="396"/>
+      <c r="F6" s="396"/>
+      <c r="G6" s="396"/>
+      <c r="H6" s="330"/>
+      <c r="I6" s="333"/>
+      <c r="L6" s="334"/>
+      <c r="M6" s="335"/>
+    </row>
+    <row r="7" spans="1:13" s="331" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="397" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="397"/>
+      <c r="C7" s="397"/>
+      <c r="D7" s="397"/>
+      <c r="E7" s="397"/>
+      <c r="F7" s="397"/>
+      <c r="G7" s="397"/>
+      <c r="H7" s="397"/>
+      <c r="I7" s="397"/>
+      <c r="L7" s="334"/>
+      <c r="M7" s="335"/>
+    </row>
+    <row r="8" spans="1:13" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="393" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="339"/>
-      <c r="E2" s="341"/>
-      <c r="F2" s="341"/>
-      <c r="G2" s="341"/>
-      <c r="H2" s="342"/>
+      <c r="B8" s="393" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="393" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="393" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="393"/>
+      <c r="F8" s="393"/>
+      <c r="G8" s="398" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="393" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="393" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" s="340" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="339" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="339"/>
-      <c r="E3" s="341"/>
-      <c r="F3" s="341"/>
-      <c r="G3" s="341"/>
-      <c r="H3" s="343"/>
+    <row r="9" spans="1:13" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="393"/>
+      <c r="B9" s="393"/>
+      <c r="C9" s="393"/>
+      <c r="D9" s="337" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="336" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="336" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="398"/>
+      <c r="H9" s="393"/>
+      <c r="I9" s="393"/>
     </row>
-    <row r="4" spans="1:8" s="340" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="339" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="339"/>
-      <c r="E4" s="341"/>
-      <c r="F4" s="341"/>
-      <c r="G4" s="341"/>
-      <c r="H4" s="343"/>
+    <row r="10" spans="1:13" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="390" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="390"/>
+      <c r="C10" s="390"/>
+      <c r="D10" s="390"/>
+      <c r="E10" s="390"/>
+      <c r="F10" s="390"/>
+      <c r="G10" s="390"/>
+      <c r="H10" s="390"/>
+      <c r="I10" s="390"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="344"/>
-      <c r="C5" s="344"/>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="343"/>
+    <row r="11" spans="1:13" s="331" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="338">
+        <v>1</v>
+      </c>
+      <c r="B11" s="327" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="338" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="339">
+        <v>1</v>
+      </c>
+      <c r="E11" s="339"/>
+      <c r="F11" s="339">
+        <v>1</v>
+      </c>
+      <c r="G11" s="340">
+        <v>1750</v>
+      </c>
+      <c r="H11" s="340">
+        <f>G11*F11</f>
+        <v>1750</v>
+      </c>
+      <c r="I11" s="341"/>
+      <c r="J11" s="334"/>
+      <c r="K11" s="334"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="345"/>
-      <c r="B6" s="345"/>
-      <c r="C6" s="344"/>
-      <c r="D6" s="344"/>
-      <c r="E6" s="344"/>
-      <c r="F6" s="344"/>
-      <c r="G6" s="344"/>
-      <c r="H6" s="343"/>
+    <row r="12" spans="1:13" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="338"/>
+      <c r="B12" s="327"/>
+      <c r="C12" s="338"/>
+      <c r="D12" s="339"/>
+      <c r="E12" s="339"/>
+      <c r="F12" s="339"/>
+      <c r="G12" s="340"/>
+      <c r="H12" s="340">
+        <f t="shared" ref="H12:H13" si="0">G12*F12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="341"/>
+      <c r="J12" s="334"/>
+      <c r="K12" s="334"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="345"/>
-      <c r="B7" s="345"/>
-      <c r="C7" s="344"/>
-      <c r="D7" s="344"/>
-      <c r="E7" s="344"/>
-      <c r="F7" s="344"/>
-      <c r="G7" s="344"/>
-      <c r="H7" s="343"/>
+    <row r="13" spans="1:13" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="338"/>
+      <c r="B13" s="327"/>
+      <c r="C13" s="338"/>
+      <c r="D13" s="339"/>
+      <c r="E13" s="339"/>
+      <c r="F13" s="339"/>
+      <c r="G13" s="340"/>
+      <c r="H13" s="340">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="341"/>
+      <c r="J13" s="334"/>
+      <c r="K13" s="334"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="345"/>
-      <c r="B8" s="345"/>
-      <c r="C8" s="344"/>
-      <c r="D8" s="344"/>
-      <c r="E8" s="344"/>
-      <c r="F8" s="344"/>
-      <c r="G8" s="344"/>
-      <c r="H8" s="343"/>
+    <row r="14" spans="1:13" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="342"/>
+      <c r="B14" s="343" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="338"/>
+      <c r="D14" s="338"/>
+      <c r="E14" s="344"/>
+      <c r="F14" s="342"/>
+      <c r="G14" s="342"/>
+      <c r="H14" s="340">
+        <f>H11</f>
+        <v>1750</v>
+      </c>
+      <c r="I14" s="345">
+        <f>H14</f>
+        <v>1750</v>
+      </c>
+      <c r="K14" s="346"/>
     </row>
-    <row r="9" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="346"/>
-      <c r="B9" s="346"/>
-      <c r="C9" s="346"/>
-      <c r="D9" s="346"/>
-      <c r="E9" s="346"/>
-      <c r="F9" s="346"/>
-      <c r="G9" s="346"/>
-      <c r="H9" s="346"/>
+    <row r="15" spans="1:13" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="394" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="394"/>
+      <c r="C15" s="394"/>
+      <c r="D15" s="394"/>
+      <c r="E15" s="394"/>
+      <c r="F15" s="394"/>
+      <c r="G15" s="394"/>
+      <c r="H15" s="394"/>
+      <c r="I15" s="394"/>
     </row>
-    <row r="10" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="347"/>
-      <c r="B10" s="347"/>
-      <c r="C10" s="347"/>
-      <c r="D10" s="347"/>
-      <c r="E10" s="347"/>
-      <c r="F10" s="347"/>
-      <c r="G10" s="347"/>
-      <c r="H10" s="347"/>
+    <row r="16" spans="1:13" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="391" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="391" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="391" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="391" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="391"/>
+      <c r="F16" s="391"/>
+      <c r="G16" s="392" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="347" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="391" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="348" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="348"/>
-      <c r="C11" s="348"/>
-      <c r="D11" s="348"/>
-      <c r="E11" s="348"/>
-      <c r="F11" s="348"/>
-      <c r="G11" s="348"/>
-      <c r="H11" s="348"/>
+    <row r="17" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="391"/>
+      <c r="B17" s="391"/>
+      <c r="C17" s="391"/>
+      <c r="D17" s="348" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="347" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="347" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="392"/>
+      <c r="H17" s="347"/>
+      <c r="I17" s="391"/>
     </row>
-    <row r="12" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="344"/>
-      <c r="C12" s="344"/>
-      <c r="D12" s="344"/>
-      <c r="E12" s="344"/>
-      <c r="F12" s="344"/>
-      <c r="G12" s="344"/>
-      <c r="H12" s="343"/>
+    <row r="18" spans="1:10" s="352" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="349">
+        <v>1</v>
+      </c>
+      <c r="B18" s="350" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="338" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="339">
+        <v>1</v>
+      </c>
+      <c r="E18" s="339"/>
+      <c r="F18" s="339">
+        <v>1</v>
+      </c>
+      <c r="G18" s="351">
+        <v>450</v>
+      </c>
+      <c r="H18" s="351">
+        <v>450</v>
+      </c>
+      <c r="I18" s="351"/>
     </row>
-    <row r="13" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="349" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="349" t="s">
+    <row r="19" spans="1:10" s="352" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="349"/>
+      <c r="B19" s="350"/>
+      <c r="C19" s="338"/>
+      <c r="D19" s="339"/>
+      <c r="E19" s="353"/>
+      <c r="F19" s="339"/>
+      <c r="G19" s="351"/>
+      <c r="H19" s="351">
+        <f>G19*F19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="351"/>
+    </row>
+    <row r="20" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="354"/>
+      <c r="B20" s="355"/>
+      <c r="C20" s="356"/>
+      <c r="D20" s="357"/>
+      <c r="E20" s="358"/>
+      <c r="F20" s="357"/>
+      <c r="G20" s="359"/>
+      <c r="H20" s="359"/>
+      <c r="I20" s="359"/>
+    </row>
+    <row r="21" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="354"/>
+      <c r="B21" s="355"/>
+      <c r="C21" s="356"/>
+      <c r="D21" s="357"/>
+      <c r="E21" s="358"/>
+      <c r="F21" s="357"/>
+      <c r="G21" s="359"/>
+      <c r="H21" s="359"/>
+      <c r="I21" s="359"/>
+    </row>
+    <row r="22" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="354"/>
+      <c r="B22" s="355"/>
+      <c r="C22" s="356"/>
+      <c r="D22" s="357"/>
+      <c r="E22" s="358"/>
+      <c r="F22" s="357"/>
+      <c r="G22" s="359"/>
+      <c r="H22" s="359"/>
+      <c r="I22" s="359"/>
+    </row>
+    <row r="23" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="360"/>
+      <c r="B23" s="361" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="356"/>
+      <c r="D23" s="360"/>
+      <c r="E23" s="360"/>
+      <c r="F23" s="360"/>
+      <c r="G23" s="360"/>
+      <c r="H23" s="362">
+        <f>SUM(H18:H22)</f>
+        <v>450</v>
+      </c>
+      <c r="I23" s="363">
+        <f>H23+H14</f>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="390" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="390"/>
+      <c r="C24" s="390"/>
+      <c r="D24" s="390"/>
+      <c r="E24" s="390"/>
+      <c r="F24" s="390"/>
+      <c r="G24" s="390"/>
+      <c r="H24" s="390"/>
+      <c r="I24" s="390"/>
+    </row>
+    <row r="25" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="391" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="391" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="350" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="350" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="350" t="s">
+      <c r="C25" s="391" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="391" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="349" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="349" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="351" t="s">
+      <c r="E25" s="391"/>
+      <c r="F25" s="391"/>
+      <c r="G25" s="392" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="347" t="s">
         <v>80</v>
       </c>
+      <c r="I25" s="391" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" s="356" customFormat="1" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="352">
-        <v>1</v>
-      </c>
-      <c r="B14" s="353" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="354">
-        <v>3746500</v>
-      </c>
-      <c r="D14" s="354">
-        <v>75000</v>
-      </c>
-      <c r="E14" s="355">
-        <f>(C14+D14)*25%</f>
-        <v>955375</v>
-      </c>
-      <c r="F14" s="352" t="s">
+    <row r="26" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="391"/>
+      <c r="B26" s="391"/>
+      <c r="C26" s="391"/>
+      <c r="D26" s="348" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="352">
-        <v>1</v>
-      </c>
-      <c r="H14" s="354">
-        <f>SUM(C14+D14+E14)*G14</f>
-        <v>4776875</v>
-      </c>
+      <c r="E26" s="347" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="347" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="392"/>
+      <c r="H26" s="347"/>
+      <c r="I26" s="391"/>
     </row>
-    <row r="15" spans="1:8" s="356" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="357">
-        <v>2</v>
-      </c>
-      <c r="B15" s="358" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="359">
-        <v>25000</v>
-      </c>
-      <c r="D15" s="359">
-        <v>2500</v>
-      </c>
-      <c r="E15" s="355">
-        <f>(C15+D15)*25%</f>
-        <v>6875</v>
-      </c>
-      <c r="F15" s="357" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="357">
-        <v>1</v>
-      </c>
-      <c r="H15" s="354">
-        <f>SUM(C15+D15+E15)*G15</f>
-        <v>34375</v>
-      </c>
+    <row r="27" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="354"/>
+      <c r="B27" s="364"/>
+      <c r="C27" s="356"/>
+      <c r="D27" s="357"/>
+      <c r="E27" s="358"/>
+      <c r="F27" s="357"/>
+      <c r="G27" s="365"/>
+      <c r="H27" s="366"/>
+      <c r="I27" s="367"/>
     </row>
-    <row r="16" spans="1:8" s="356" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="357">
-        <v>3</v>
-      </c>
-      <c r="B16" s="358" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="359">
-        <v>10000</v>
-      </c>
-      <c r="D16" s="359">
-        <v>2500</v>
-      </c>
-      <c r="E16" s="355">
-        <f>(C16+D16)*25%</f>
-        <v>3125</v>
-      </c>
-      <c r="F16" s="357" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="357">
-        <v>1</v>
-      </c>
-      <c r="H16" s="354">
-        <f>SUM(C16+D16+E16)*G16</f>
-        <v>15625</v>
-      </c>
+    <row r="28" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="354"/>
+      <c r="B28" s="364"/>
+      <c r="C28" s="356"/>
+      <c r="D28" s="357"/>
+      <c r="E28" s="358"/>
+      <c r="F28" s="357"/>
+      <c r="G28" s="365"/>
+      <c r="H28" s="366"/>
+      <c r="I28" s="367"/>
     </row>
-    <row r="17" spans="1:11" s="362" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="360" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="360"/>
-      <c r="C17" s="360"/>
-      <c r="D17" s="360"/>
-      <c r="E17" s="360"/>
-      <c r="F17" s="360"/>
-      <c r="G17" s="360"/>
-      <c r="H17" s="361">
-        <f>SUM(H14:H16)</f>
-        <v>4826875</v>
-      </c>
-      <c r="J17" s="363"/>
-      <c r="K17" s="364"/>
+    <row r="29" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="356"/>
+      <c r="B29" s="360" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="360" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="357">
+        <v>198</v>
+      </c>
+      <c r="E29" s="357"/>
+      <c r="F29" s="357">
+        <v>198</v>
+      </c>
+      <c r="G29" s="357">
+        <f>I23</f>
+        <v>2200</v>
+      </c>
+      <c r="H29" s="368">
+        <f>G29*F29</f>
+        <v>435600</v>
+      </c>
+      <c r="I29" s="362">
+        <f>I23+H29</f>
+        <v>437800</v>
+      </c>
     </row>
-    <row r="18" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:11" s="340" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="339" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="339"/>
-      <c r="E20" s="341"/>
-      <c r="F20" s="341"/>
-      <c r="G20" s="341"/>
-      <c r="H20" s="342"/>
+    <row r="30" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="360"/>
+      <c r="B30" s="361" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="361"/>
+      <c r="D30" s="361"/>
+      <c r="E30" s="361"/>
+      <c r="F30" s="361"/>
+      <c r="G30" s="361"/>
+      <c r="H30" s="368"/>
+      <c r="I30" s="362">
+        <f>I29</f>
+        <v>437800</v>
+      </c>
     </row>
-    <row r="21" spans="1:11" s="340" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="339" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="339"/>
-      <c r="E21" s="341"/>
-      <c r="F21" s="341"/>
-      <c r="G21" s="341"/>
-      <c r="H21" s="343"/>
-    </row>
-    <row r="22" spans="1:11" s="340" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="339" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="339"/>
-      <c r="E22" s="341"/>
-      <c r="F22" s="341"/>
-      <c r="G22" s="341"/>
-      <c r="H22" s="343"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="344"/>
-      <c r="C23" s="344"/>
-      <c r="D23" s="344"/>
-      <c r="E23" s="344"/>
-      <c r="F23" s="344"/>
-      <c r="G23" s="344"/>
-      <c r="H23" s="343"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="345"/>
-      <c r="B24" s="345"/>
-      <c r="C24" s="344"/>
-      <c r="D24" s="344"/>
-      <c r="E24" s="344"/>
-      <c r="F24" s="344"/>
-      <c r="G24" s="344"/>
-      <c r="H24" s="343"/>
-    </row>
-    <row r="25" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="346"/>
-      <c r="B25" s="346"/>
-      <c r="C25" s="346"/>
-      <c r="D25" s="346"/>
-      <c r="E25" s="346"/>
-      <c r="F25" s="346"/>
-      <c r="G25" s="346"/>
-      <c r="H25" s="346"/>
-    </row>
-    <row r="26" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="347"/>
-      <c r="B26" s="347"/>
-      <c r="C26" s="347"/>
-      <c r="D26" s="347"/>
-      <c r="E26" s="347"/>
-      <c r="F26" s="347"/>
-      <c r="G26" s="347"/>
-      <c r="H26" s="347"/>
-    </row>
-    <row r="27" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="348" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" s="348"/>
-      <c r="C27" s="348"/>
-      <c r="D27" s="348"/>
-      <c r="E27" s="348"/>
-      <c r="F27" s="348"/>
-      <c r="G27" s="348"/>
-      <c r="H27" s="348"/>
-    </row>
-    <row r="28" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="344"/>
-      <c r="C28" s="344"/>
-      <c r="D28" s="344"/>
-      <c r="E28" s="344"/>
-      <c r="F28" s="344"/>
-      <c r="G28" s="344"/>
-      <c r="H28" s="343"/>
-    </row>
-    <row r="29" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="349" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="349" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="350" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="350" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="350" t="s">
-        <v>103</v>
-      </c>
-      <c r="F29" s="349" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="349" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" s="351" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="356" customFormat="1" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="352">
-        <v>1</v>
-      </c>
-      <c r="B30" s="353" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="354">
-        <v>37760</v>
-      </c>
-      <c r="D30" s="354">
-        <v>2000</v>
-      </c>
-      <c r="E30" s="355">
-        <f>(C30+D30)*25%</f>
-        <v>9940</v>
-      </c>
-      <c r="F30" s="352" t="s">
-        <v>105</v>
-      </c>
-      <c r="G30" s="352">
-        <v>1</v>
-      </c>
-      <c r="H30" s="354">
-        <f>SUM(C30+D30+E30)*G30</f>
-        <v>49700</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="362" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="360" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="360"/>
+    <row r="31" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="388" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="388"/>
       <c r="C31" s="360"/>
-      <c r="D31" s="360"/>
+      <c r="D31" s="369">
+        <v>0.25</v>
+      </c>
       <c r="E31" s="360"/>
       <c r="F31" s="360"/>
-      <c r="G31" s="360"/>
-      <c r="H31" s="361">
-        <f>SUM(H30:H30)</f>
-        <v>49700</v>
-      </c>
-      <c r="J31" s="363"/>
-      <c r="K31" s="364"/>
+      <c r="G31" s="357"/>
+      <c r="H31" s="357"/>
+      <c r="I31" s="362">
+        <f>I30*D31</f>
+        <v>109450</v>
+      </c>
     </row>
-    <row r="32" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:13" s="368" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="365" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" s="366">
+    <row r="32" spans="1:10" s="375" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="389" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="389"/>
+      <c r="C32" s="370"/>
+      <c r="D32" s="371"/>
+      <c r="E32" s="370"/>
+      <c r="F32" s="370"/>
+      <c r="G32" s="372"/>
+      <c r="H32" s="372"/>
+      <c r="I32" s="373">
+        <f>SUM(I30:I31)</f>
+        <v>547250</v>
+      </c>
+      <c r="J32" s="374"/>
+    </row>
+    <row r="34" spans="1:13" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="328" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="329">
         <v>45224</v>
       </c>
-      <c r="C34" s="367"/>
-      <c r="D34" s="367"/>
-      <c r="E34" s="367"/>
-      <c r="F34" s="367"/>
-      <c r="G34" s="367"/>
-      <c r="H34" s="367"/>
-      <c r="I34" s="367"/>
+      <c r="C34" s="330"/>
+      <c r="D34" s="330"/>
+      <c r="E34" s="330"/>
+      <c r="F34" s="330"/>
+      <c r="G34" s="330"/>
+      <c r="H34" s="330"/>
+      <c r="I34" s="330"/>
     </row>
-    <row r="35" spans="1:13" s="368" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="365" t="s">
-        <v>114</v>
-      </c>
-      <c r="B35" s="369" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="367"/>
-      <c r="D35" s="367"/>
-      <c r="E35" s="367"/>
-      <c r="F35" s="367"/>
-      <c r="G35" s="367"/>
+    <row r="35" spans="1:13" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="332" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="330"/>
+      <c r="D35" s="330"/>
+      <c r="E35" s="330"/>
+      <c r="F35" s="330"/>
+      <c r="G35" s="330"/>
     </row>
-    <row r="36" spans="1:13" s="368" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="365" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" s="369"/>
-      <c r="C36" s="367"/>
-      <c r="D36" s="367"/>
-      <c r="E36" s="367"/>
-      <c r="F36" s="367"/>
-      <c r="G36" s="367"/>
+    <row r="36" spans="1:13" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="328" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="332"/>
+      <c r="C36" s="330"/>
+      <c r="D36" s="330"/>
+      <c r="E36" s="330"/>
+      <c r="F36" s="330"/>
+      <c r="G36" s="330"/>
     </row>
-    <row r="37" spans="1:13" s="368" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="369"/>
-      <c r="B37" s="369"/>
-      <c r="C37" s="370"/>
-      <c r="D37" s="371"/>
-      <c r="E37" s="371"/>
-      <c r="F37" s="371"/>
-      <c r="G37" s="371"/>
-      <c r="H37" s="367"/>
-      <c r="I37" s="372"/>
-      <c r="L37" s="373"/>
-      <c r="M37" s="374"/>
+    <row r="37" spans="1:13" s="331" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="332"/>
+      <c r="B37" s="332"/>
+      <c r="C37" s="395"/>
+      <c r="D37" s="396"/>
+      <c r="E37" s="396"/>
+      <c r="F37" s="396"/>
+      <c r="G37" s="396"/>
+      <c r="H37" s="330"/>
+      <c r="I37" s="333"/>
+      <c r="L37" s="334"/>
+      <c r="M37" s="335"/>
     </row>
-    <row r="38" spans="1:13" s="368" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="375" t="s">
-        <v>117</v>
-      </c>
-      <c r="B38" s="375"/>
-      <c r="C38" s="375"/>
-      <c r="D38" s="375"/>
-      <c r="E38" s="375"/>
-      <c r="F38" s="375"/>
-      <c r="G38" s="375"/>
-      <c r="H38" s="375"/>
-      <c r="I38" s="375"/>
-      <c r="L38" s="373"/>
-      <c r="M38" s="374"/>
+    <row r="38" spans="1:13" s="331" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="397" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="397"/>
+      <c r="C38" s="397"/>
+      <c r="D38" s="397"/>
+      <c r="E38" s="397"/>
+      <c r="F38" s="397"/>
+      <c r="G38" s="397"/>
+      <c r="H38" s="397"/>
+      <c r="I38" s="397"/>
+      <c r="L38" s="334"/>
+      <c r="M38" s="335"/>
     </row>
-    <row r="39" spans="1:13" s="368" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="376" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="376" t="s">
+    <row r="39" spans="1:13" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="393" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="393" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="376" t="s">
+      <c r="C39" s="393" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="376" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" s="376"/>
-      <c r="F39" s="376"/>
-      <c r="G39" s="377" t="s">
+      <c r="D39" s="393" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="393"/>
+      <c r="F39" s="393"/>
+      <c r="G39" s="398" t="s">
         <v>79</v>
       </c>
-      <c r="H39" s="376" t="s">
+      <c r="H39" s="393" t="s">
         <v>80</v>
       </c>
-      <c r="I39" s="376" t="s">
-        <v>119</v>
+      <c r="I39" s="393" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="368" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="376"/>
-      <c r="B40" s="376"/>
-      <c r="C40" s="376"/>
-      <c r="D40" s="378" t="s">
+    <row r="40" spans="1:13" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="393"/>
+      <c r="B40" s="393"/>
+      <c r="C40" s="393"/>
+      <c r="D40" s="337" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="336" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" s="336" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="398"/>
+      <c r="H40" s="393"/>
+      <c r="I40" s="393"/>
+    </row>
+    <row r="41" spans="1:13" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="390" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="390"/>
+      <c r="C41" s="390"/>
+      <c r="D41" s="390"/>
+      <c r="E41" s="390"/>
+      <c r="F41" s="390"/>
+      <c r="G41" s="390"/>
+      <c r="H41" s="390"/>
+      <c r="I41" s="390"/>
+    </row>
+    <row r="42" spans="1:13" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="338">
+        <v>1</v>
+      </c>
+      <c r="B42" s="327" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="379" t="s">
+      <c r="C42" s="338" t="s">
         <v>121</v>
       </c>
-      <c r="F40" s="379" t="s">
-        <v>122</v>
-      </c>
-      <c r="G40" s="377"/>
-      <c r="H40" s="376"/>
-      <c r="I40" s="376"/>
+      <c r="D42" s="339">
+        <v>14</v>
+      </c>
+      <c r="E42" s="339"/>
+      <c r="F42" s="339">
+        <v>14</v>
+      </c>
+      <c r="G42" s="340">
+        <v>7500</v>
+      </c>
+      <c r="H42" s="340">
+        <f>G42*F42</f>
+        <v>105000</v>
+      </c>
+      <c r="I42" s="341"/>
+      <c r="J42" s="334"/>
+      <c r="K42" s="334"/>
     </row>
-    <row r="41" spans="1:13" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="380" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41" s="380"/>
-      <c r="C41" s="380"/>
-      <c r="D41" s="380"/>
-      <c r="E41" s="380"/>
-      <c r="F41" s="380"/>
-      <c r="G41" s="380"/>
-      <c r="H41" s="380"/>
-      <c r="I41" s="380"/>
+    <row r="43" spans="1:13" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="338"/>
+      <c r="B43" s="327"/>
+      <c r="C43" s="338"/>
+      <c r="D43" s="339"/>
+      <c r="E43" s="339"/>
+      <c r="F43" s="339"/>
+      <c r="G43" s="340"/>
+      <c r="H43" s="340">
+        <f t="shared" ref="H43:H44" si="1">G43*F43</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="341"/>
+      <c r="J43" s="334"/>
+      <c r="K43" s="334"/>
     </row>
-    <row r="42" spans="1:13" s="368" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="381">
-        <v>1</v>
-      </c>
-      <c r="B42" s="358" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" s="381" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="382">
-        <v>1</v>
-      </c>
-      <c r="E42" s="382"/>
-      <c r="F42" s="382">
-        <v>1</v>
-      </c>
-      <c r="G42" s="383">
-        <v>1750</v>
-      </c>
-      <c r="H42" s="383">
-        <f>G42*F42</f>
-        <v>1750</v>
-      </c>
-      <c r="I42" s="384"/>
-      <c r="J42" s="373"/>
-      <c r="K42" s="373"/>
+    <row r="44" spans="1:13" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="338"/>
+      <c r="B44" s="327"/>
+      <c r="C44" s="338"/>
+      <c r="D44" s="339"/>
+      <c r="E44" s="339"/>
+      <c r="F44" s="339"/>
+      <c r="G44" s="340"/>
+      <c r="H44" s="340">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="341"/>
+      <c r="J44" s="334"/>
+      <c r="K44" s="334"/>
     </row>
-    <row r="43" spans="1:13" s="368" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="381"/>
-      <c r="B43" s="358"/>
-      <c r="C43" s="381"/>
-      <c r="D43" s="382"/>
-      <c r="E43" s="382"/>
-      <c r="F43" s="382"/>
-      <c r="G43" s="383"/>
-      <c r="H43" s="383">
-        <f t="shared" ref="H43:H44" si="0">G43*F43</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="384"/>
-      <c r="J43" s="373"/>
-      <c r="K43" s="373"/>
+    <row r="45" spans="1:13" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="342"/>
+      <c r="B45" s="343" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="338"/>
+      <c r="D45" s="338"/>
+      <c r="E45" s="344"/>
+      <c r="F45" s="342"/>
+      <c r="G45" s="342"/>
+      <c r="H45" s="340">
+        <v>105000</v>
+      </c>
+      <c r="I45" s="345">
+        <f>H45</f>
+        <v>105000</v>
+      </c>
+      <c r="K45" s="346"/>
     </row>
-    <row r="44" spans="1:13" s="368" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="381"/>
-      <c r="B44" s="358"/>
-      <c r="C44" s="381"/>
-      <c r="D44" s="382"/>
-      <c r="E44" s="382"/>
-      <c r="F44" s="382"/>
-      <c r="G44" s="383"/>
-      <c r="H44" s="383">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="384"/>
-      <c r="J44" s="373"/>
-      <c r="K44" s="373"/>
+    <row r="46" spans="1:13" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="394" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="394"/>
+      <c r="C46" s="394"/>
+      <c r="D46" s="394"/>
+      <c r="E46" s="394"/>
+      <c r="F46" s="394"/>
+      <c r="G46" s="394"/>
+      <c r="H46" s="394"/>
+      <c r="I46" s="394"/>
     </row>
-    <row r="45" spans="1:13" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="385"/>
-      <c r="B45" s="386" t="s">
-        <v>126</v>
-      </c>
-      <c r="C45" s="381"/>
-      <c r="D45" s="381"/>
-      <c r="E45" s="387"/>
-      <c r="F45" s="385"/>
-      <c r="G45" s="385"/>
-      <c r="H45" s="383">
-        <f>H42</f>
-        <v>1750</v>
-      </c>
-      <c r="I45" s="388">
-        <f>H45</f>
-        <v>1750</v>
-      </c>
-      <c r="K45" s="389"/>
-    </row>
-    <row r="46" spans="1:13" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="390" t="s">
-        <v>127</v>
-      </c>
-      <c r="B46" s="390"/>
-      <c r="C46" s="390"/>
-      <c r="D46" s="390"/>
-      <c r="E46" s="390"/>
-      <c r="F46" s="390"/>
-      <c r="G46" s="390"/>
-      <c r="H46" s="390"/>
-      <c r="I46" s="390"/>
-    </row>
-    <row r="47" spans="1:13" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="391" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B47" s="391" t="s">
         <v>76</v>
@@ -22500,144 +22475,145 @@
         <v>77</v>
       </c>
       <c r="D47" s="391" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E47" s="391"/>
       <c r="F47" s="391"/>
       <c r="G47" s="392" t="s">
         <v>79</v>
       </c>
-      <c r="H47" s="393" t="s">
+      <c r="H47" s="347" t="s">
         <v>80</v>
       </c>
       <c r="I47" s="391" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="391"/>
       <c r="B48" s="391"/>
       <c r="C48" s="391"/>
-      <c r="D48" s="394" t="s">
-        <v>120</v>
-      </c>
-      <c r="E48" s="393" t="s">
-        <v>121</v>
-      </c>
-      <c r="F48" s="393" t="s">
-        <v>122</v>
+      <c r="D48" s="348" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" s="347" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" s="347" t="s">
+        <v>107</v>
       </c>
       <c r="G48" s="392"/>
-      <c r="H48" s="393"/>
+      <c r="H48" s="347"/>
       <c r="I48" s="391"/>
     </row>
-    <row r="49" spans="1:10" s="398" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="395">
+    <row r="49" spans="1:10" s="352" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="349">
         <v>1</v>
       </c>
-      <c r="B49" s="396" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="381" t="s">
-        <v>125</v>
-      </c>
-      <c r="D49" s="382">
-        <v>1</v>
-      </c>
-      <c r="E49" s="382"/>
-      <c r="F49" s="382">
-        <v>1</v>
-      </c>
-      <c r="G49" s="397">
-        <v>450</v>
-      </c>
-      <c r="H49" s="397">
-        <v>450</v>
-      </c>
-      <c r="I49" s="397"/>
+      <c r="B49" s="350" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="338" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="339">
+        <v>14</v>
+      </c>
+      <c r="E49" s="339"/>
+      <c r="F49" s="339">
+        <v>14</v>
+      </c>
+      <c r="G49" s="351">
+        <v>150</v>
+      </c>
+      <c r="H49" s="351">
+        <f>G49*F49</f>
+        <v>2100</v>
+      </c>
+      <c r="I49" s="351"/>
     </row>
-    <row r="50" spans="1:10" s="398" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="395"/>
-      <c r="B50" s="396"/>
-      <c r="C50" s="381"/>
-      <c r="D50" s="382"/>
-      <c r="E50" s="399"/>
-      <c r="F50" s="382"/>
-      <c r="G50" s="397"/>
-      <c r="H50" s="397">
+    <row r="50" spans="1:10" s="352" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="349"/>
+      <c r="B50" s="350"/>
+      <c r="C50" s="338"/>
+      <c r="D50" s="339"/>
+      <c r="E50" s="353"/>
+      <c r="F50" s="339"/>
+      <c r="G50" s="351"/>
+      <c r="H50" s="351">
         <f>G50*F50</f>
         <v>0</v>
       </c>
-      <c r="I50" s="397"/>
+      <c r="I50" s="351"/>
     </row>
-    <row r="51" spans="1:10" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="400"/>
-      <c r="B51" s="401"/>
-      <c r="C51" s="402"/>
-      <c r="D51" s="403"/>
-      <c r="E51" s="404"/>
-      <c r="F51" s="403"/>
-      <c r="G51" s="405"/>
-      <c r="H51" s="405"/>
-      <c r="I51" s="405"/>
+    <row r="51" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="354"/>
+      <c r="B51" s="355"/>
+      <c r="C51" s="356"/>
+      <c r="D51" s="357"/>
+      <c r="E51" s="358"/>
+      <c r="F51" s="357"/>
+      <c r="G51" s="359"/>
+      <c r="H51" s="359"/>
+      <c r="I51" s="359"/>
     </row>
-    <row r="52" spans="1:10" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="400"/>
-      <c r="B52" s="401"/>
-      <c r="C52" s="402"/>
-      <c r="D52" s="403"/>
-      <c r="E52" s="404"/>
-      <c r="F52" s="403"/>
-      <c r="G52" s="405"/>
-      <c r="H52" s="405"/>
-      <c r="I52" s="405"/>
+    <row r="52" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="354"/>
+      <c r="B52" s="355"/>
+      <c r="C52" s="356"/>
+      <c r="D52" s="357"/>
+      <c r="E52" s="358"/>
+      <c r="F52" s="357"/>
+      <c r="G52" s="359"/>
+      <c r="H52" s="359"/>
+      <c r="I52" s="359"/>
     </row>
-    <row r="53" spans="1:10" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="400"/>
-      <c r="B53" s="401"/>
-      <c r="C53" s="402"/>
-      <c r="D53" s="403"/>
-      <c r="E53" s="404"/>
-      <c r="F53" s="403"/>
-      <c r="G53" s="405"/>
-      <c r="H53" s="405"/>
-      <c r="I53" s="405"/>
+    <row r="53" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="354"/>
+      <c r="B53" s="355"/>
+      <c r="C53" s="356"/>
+      <c r="D53" s="357"/>
+      <c r="E53" s="358"/>
+      <c r="F53" s="357"/>
+      <c r="G53" s="359"/>
+      <c r="H53" s="359"/>
+      <c r="I53" s="359"/>
     </row>
-    <row r="54" spans="1:10" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="406"/>
-      <c r="B54" s="407" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" s="402"/>
-      <c r="D54" s="406"/>
-      <c r="E54" s="406"/>
-      <c r="F54" s="406"/>
-      <c r="G54" s="406"/>
-      <c r="H54" s="408">
+    <row r="54" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="360"/>
+      <c r="B54" s="361" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="356"/>
+      <c r="D54" s="360"/>
+      <c r="E54" s="360"/>
+      <c r="F54" s="360"/>
+      <c r="G54" s="360"/>
+      <c r="H54" s="362">
         <f>SUM(H49:H53)</f>
-        <v>450</v>
-      </c>
-      <c r="I54" s="409">
+        <v>2100</v>
+      </c>
+      <c r="I54" s="363">
         <f>H54+H45</f>
-        <v>2200</v>
+        <v>107100</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="380" t="s">
-        <v>129</v>
-      </c>
-      <c r="B55" s="380"/>
-      <c r="C55" s="380"/>
-      <c r="D55" s="380"/>
-      <c r="E55" s="380"/>
-      <c r="F55" s="380"/>
-      <c r="G55" s="380"/>
-      <c r="H55" s="380"/>
-      <c r="I55" s="380"/>
+    <row r="55" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="390" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="390"/>
+      <c r="C55" s="390"/>
+      <c r="D55" s="390"/>
+      <c r="E55" s="390"/>
+      <c r="F55" s="390"/>
+      <c r="G55" s="390"/>
+      <c r="H55" s="390"/>
+      <c r="I55" s="390"/>
     </row>
-    <row r="56" spans="1:10" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="391" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B56" s="391" t="s">
         <v>76</v>
@@ -22646,685 +22622,1250 @@
         <v>77</v>
       </c>
       <c r="D56" s="391" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E56" s="391"/>
       <c r="F56" s="391"/>
       <c r="G56" s="392" t="s">
         <v>79</v>
       </c>
-      <c r="H56" s="393" t="s">
+      <c r="H56" s="347" t="s">
         <v>80</v>
       </c>
       <c r="I56" s="391" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="391"/>
       <c r="B57" s="391"/>
       <c r="C57" s="391"/>
-      <c r="D57" s="394" t="s">
-        <v>120</v>
-      </c>
-      <c r="E57" s="393" t="s">
-        <v>121</v>
-      </c>
-      <c r="F57" s="393" t="s">
-        <v>122</v>
+      <c r="D57" s="348" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" s="347" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" s="347" t="s">
+        <v>107</v>
       </c>
       <c r="G57" s="392"/>
-      <c r="H57" s="393"/>
+      <c r="H57" s="347"/>
       <c r="I57" s="391"/>
     </row>
-    <row r="58" spans="1:10" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="400"/>
-      <c r="B58" s="410"/>
-      <c r="C58" s="402"/>
-      <c r="D58" s="403"/>
-      <c r="E58" s="404"/>
-      <c r="F58" s="403"/>
-      <c r="G58" s="411"/>
-      <c r="H58" s="412"/>
-      <c r="I58" s="413"/>
+    <row r="58" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="354"/>
+      <c r="B58" s="364"/>
+      <c r="C58" s="356"/>
+      <c r="D58" s="357"/>
+      <c r="E58" s="358"/>
+      <c r="F58" s="357"/>
+      <c r="G58" s="365"/>
+      <c r="H58" s="366"/>
+      <c r="I58" s="367"/>
     </row>
-    <row r="59" spans="1:10" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="400"/>
-      <c r="B59" s="410"/>
-      <c r="C59" s="402"/>
-      <c r="D59" s="403"/>
-      <c r="E59" s="404"/>
-      <c r="F59" s="403"/>
-      <c r="G59" s="411"/>
-      <c r="H59" s="412"/>
-      <c r="I59" s="413"/>
+    <row r="59" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="354"/>
+      <c r="B59" s="364"/>
+      <c r="C59" s="356"/>
+      <c r="D59" s="357"/>
+      <c r="E59" s="358"/>
+      <c r="F59" s="357"/>
+      <c r="G59" s="365"/>
+      <c r="H59" s="366"/>
+      <c r="I59" s="367"/>
     </row>
-    <row r="60" spans="1:10" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="402"/>
-      <c r="B60" s="406" t="s">
+    <row r="60" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="356"/>
+      <c r="B60" s="360" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="360"/>
+      <c r="D60" s="357"/>
+      <c r="E60" s="357"/>
+      <c r="F60" s="357"/>
+      <c r="G60" s="357"/>
+      <c r="H60" s="368"/>
+      <c r="I60" s="362">
+        <f>I54+I58</f>
+        <v>107100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="360"/>
+      <c r="B61" s="361" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="361"/>
+      <c r="D61" s="361"/>
+      <c r="E61" s="361"/>
+      <c r="F61" s="361"/>
+      <c r="G61" s="361"/>
+      <c r="H61" s="368"/>
+      <c r="I61" s="362">
+        <f>I60</f>
+        <v>107100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="388" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="388"/>
+      <c r="C62" s="360"/>
+      <c r="D62" s="369">
+        <v>0.25</v>
+      </c>
+      <c r="E62" s="360"/>
+      <c r="F62" s="360"/>
+      <c r="G62" s="357"/>
+      <c r="H62" s="357"/>
+      <c r="I62" s="362">
+        <f>I61*D62</f>
+        <v>26775</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="375" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="389" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="389"/>
+      <c r="C63" s="370"/>
+      <c r="D63" s="371"/>
+      <c r="E63" s="370"/>
+      <c r="F63" s="370"/>
+      <c r="G63" s="372"/>
+      <c r="H63" s="372"/>
+      <c r="I63" s="373">
+        <f>SUM(I61:I62)</f>
+        <v>133875</v>
+      </c>
+      <c r="J63" s="374"/>
+    </row>
+    <row r="65" spans="1:13" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="328" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" s="329">
+        <v>45233</v>
+      </c>
+      <c r="C65" s="330"/>
+      <c r="D65" s="330"/>
+      <c r="E65" s="330"/>
+      <c r="F65" s="330"/>
+      <c r="G65" s="330"/>
+      <c r="H65" s="330"/>
+      <c r="I65" s="330"/>
+    </row>
+    <row r="66" spans="1:13" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" s="332" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="330"/>
+      <c r="D66" s="330"/>
+      <c r="E66" s="330"/>
+      <c r="F66" s="330"/>
+      <c r="G66" s="330"/>
+    </row>
+    <row r="67" spans="1:13" s="331" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="332"/>
+      <c r="B67" s="332"/>
+      <c r="C67" s="395"/>
+      <c r="D67" s="396"/>
+      <c r="E67" s="396"/>
+      <c r="F67" s="396"/>
+      <c r="G67" s="396"/>
+      <c r="H67" s="330"/>
+      <c r="I67" s="333"/>
+      <c r="L67" s="334"/>
+      <c r="M67" s="335"/>
+    </row>
+    <row r="68" spans="1:13" s="331" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="397" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="397"/>
+      <c r="C68" s="397"/>
+      <c r="D68" s="397"/>
+      <c r="E68" s="397"/>
+      <c r="F68" s="397"/>
+      <c r="G68" s="397"/>
+      <c r="H68" s="397"/>
+      <c r="I68" s="397"/>
+      <c r="L68" s="334"/>
+      <c r="M68" s="335"/>
+    </row>
+    <row r="69" spans="1:13" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="393" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="393" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="393" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="393" t="s">
+        <v>103</v>
+      </c>
+      <c r="E69" s="393"/>
+      <c r="F69" s="393"/>
+      <c r="G69" s="398" t="s">
+        <v>79</v>
+      </c>
+      <c r="H69" s="393" t="s">
+        <v>80</v>
+      </c>
+      <c r="I69" s="393" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="393"/>
+      <c r="B70" s="393"/>
+      <c r="C70" s="393"/>
+      <c r="D70" s="337" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70" s="336" t="s">
+        <v>106</v>
+      </c>
+      <c r="F70" s="336" t="s">
+        <v>107</v>
+      </c>
+      <c r="G70" s="398"/>
+      <c r="H70" s="393"/>
+      <c r="I70" s="393"/>
+    </row>
+    <row r="71" spans="1:13" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="390" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" s="390"/>
+      <c r="C71" s="390"/>
+      <c r="D71" s="390"/>
+      <c r="E71" s="390"/>
+      <c r="F71" s="390"/>
+      <c r="G71" s="390"/>
+      <c r="H71" s="390"/>
+      <c r="I71" s="390"/>
+    </row>
+    <row r="72" spans="1:13" s="331" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="338">
+        <v>1</v>
+      </c>
+      <c r="B72" s="327" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="338" t="s">
+        <v>125</v>
+      </c>
+      <c r="D72" s="339">
+        <v>250</v>
+      </c>
+      <c r="E72" s="339"/>
+      <c r="F72" s="339">
+        <v>250</v>
+      </c>
+      <c r="G72" s="340">
+        <v>600</v>
+      </c>
+      <c r="H72" s="340">
+        <f>G72*F72</f>
+        <v>150000</v>
+      </c>
+      <c r="I72" s="341"/>
+      <c r="J72" s="334"/>
+      <c r="K72" s="334"/>
+    </row>
+    <row r="73" spans="1:13" s="331" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="338">
+        <v>2</v>
+      </c>
+      <c r="B73" s="327" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" s="338" t="s">
+        <v>125</v>
+      </c>
+      <c r="D73" s="339">
         <v>126</v>
       </c>
-      <c r="C60" s="406" t="s">
+      <c r="E73" s="339"/>
+      <c r="F73" s="339">
+        <v>126</v>
+      </c>
+      <c r="G73" s="340">
+        <v>308.56</v>
+      </c>
+      <c r="H73" s="340">
+        <f>G73*F73</f>
+        <v>38878.559999999998</v>
+      </c>
+      <c r="I73" s="341"/>
+      <c r="J73" s="334"/>
+      <c r="K73" s="334"/>
+    </row>
+    <row r="74" spans="1:13" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="338">
+        <v>3</v>
+      </c>
+      <c r="B74" s="327" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" s="338" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" s="339">
+        <v>1</v>
+      </c>
+      <c r="E74" s="339"/>
+      <c r="F74" s="339">
+        <v>1</v>
+      </c>
+      <c r="G74" s="340">
+        <v>30000</v>
+      </c>
+      <c r="H74" s="340">
+        <f>G74*F74</f>
+        <v>30000</v>
+      </c>
+      <c r="I74" s="341"/>
+      <c r="J74" s="334"/>
+      <c r="K74" s="334"/>
+    </row>
+    <row r="75" spans="1:13" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="342"/>
+      <c r="B75" s="343" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="338"/>
+      <c r="D75" s="338"/>
+      <c r="E75" s="344"/>
+      <c r="F75" s="342"/>
+      <c r="G75" s="342"/>
+      <c r="H75" s="340">
+        <f>SUM(H72:H74)</f>
+        <v>218878.56</v>
+      </c>
+      <c r="I75" s="345">
+        <f>H75</f>
+        <v>218878.56</v>
+      </c>
+      <c r="K75" s="346"/>
+    </row>
+    <row r="76" spans="1:13" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="394" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" s="394"/>
+      <c r="C76" s="394"/>
+      <c r="D76" s="394"/>
+      <c r="E76" s="394"/>
+      <c r="F76" s="394"/>
+      <c r="G76" s="394"/>
+      <c r="H76" s="394"/>
+      <c r="I76" s="394"/>
+    </row>
+    <row r="77" spans="1:13" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="391" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77" s="391" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" s="391" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77" s="391" t="s">
+        <v>103</v>
+      </c>
+      <c r="E77" s="391"/>
+      <c r="F77" s="391"/>
+      <c r="G77" s="392" t="s">
+        <v>79</v>
+      </c>
+      <c r="H77" s="347" t="s">
+        <v>80</v>
+      </c>
+      <c r="I77" s="391" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78" s="391"/>
+      <c r="B78" s="391"/>
+      <c r="C78" s="391"/>
+      <c r="D78" s="348" t="s">
+        <v>105</v>
+      </c>
+      <c r="E78" s="347" t="s">
+        <v>106</v>
+      </c>
+      <c r="F78" s="347" t="s">
+        <v>107</v>
+      </c>
+      <c r="G78" s="392"/>
+      <c r="H78" s="347"/>
+      <c r="I78" s="391"/>
+    </row>
+    <row r="79" spans="1:13" s="352" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A79" s="349">
+        <v>1</v>
+      </c>
+      <c r="B79" s="399" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" s="338" t="s">
         <v>125</v>
       </c>
-      <c r="D60" s="403">
-        <v>198</v>
-      </c>
-      <c r="E60" s="403"/>
-      <c r="F60" s="403">
-        <v>198</v>
-      </c>
-      <c r="G60" s="403">
-        <f>I54</f>
-        <v>2200</v>
-      </c>
-      <c r="H60" s="414">
-        <f>G60*F60</f>
-        <v>435600</v>
-      </c>
-      <c r="I60" s="408">
-        <f>I54+H60</f>
-        <v>437800</v>
-      </c>
+      <c r="D79" s="339">
+        <v>250</v>
+      </c>
+      <c r="E79" s="339"/>
+      <c r="F79" s="339">
+        <v>250</v>
+      </c>
+      <c r="G79" s="351">
+        <v>120</v>
+      </c>
+      <c r="H79" s="351">
+        <f>F79*G79</f>
+        <v>30000</v>
+      </c>
+      <c r="I79" s="351"/>
     </row>
-    <row r="61" spans="1:10" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="406"/>
-      <c r="B61" s="407" t="s">
-        <v>130</v>
-      </c>
-      <c r="C61" s="407"/>
-      <c r="D61" s="407"/>
-      <c r="E61" s="407"/>
-      <c r="F61" s="407"/>
-      <c r="G61" s="407"/>
-      <c r="H61" s="414"/>
-      <c r="I61" s="408">
-        <f>I60</f>
-        <v>437800</v>
-      </c>
+    <row r="80" spans="1:13" s="352" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A80" s="349">
+        <v>2</v>
+      </c>
+      <c r="B80" s="399" t="s">
+        <v>126</v>
+      </c>
+      <c r="C80" s="338" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" s="339">
+        <v>126</v>
+      </c>
+      <c r="E80" s="353"/>
+      <c r="F80" s="339">
+        <v>126</v>
+      </c>
+      <c r="G80" s="351">
+        <v>100</v>
+      </c>
+      <c r="H80" s="351">
+        <f>F80*G80</f>
+        <v>12600</v>
+      </c>
+      <c r="I80" s="351"/>
     </row>
-    <row r="62" spans="1:10" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="415" t="s">
-        <v>131</v>
-      </c>
-      <c r="B62" s="415"/>
-      <c r="C62" s="406"/>
-      <c r="D62" s="416">
+    <row r="81" spans="1:10" s="352" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" s="349">
+        <v>3</v>
+      </c>
+      <c r="B81" s="399" t="s">
+        <v>124</v>
+      </c>
+      <c r="C81" s="338" t="s">
+        <v>97</v>
+      </c>
+      <c r="D81" s="339">
+        <v>1</v>
+      </c>
+      <c r="E81" s="353"/>
+      <c r="F81" s="339">
+        <v>1</v>
+      </c>
+      <c r="G81" s="351">
+        <v>15000</v>
+      </c>
+      <c r="H81" s="351">
+        <f>F81*G81</f>
+        <v>15000</v>
+      </c>
+      <c r="I81" s="351"/>
+    </row>
+    <row r="82" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82" s="354"/>
+      <c r="B82" s="355"/>
+      <c r="C82" s="356"/>
+      <c r="D82" s="357"/>
+      <c r="E82" s="358"/>
+      <c r="F82" s="357"/>
+      <c r="G82" s="359"/>
+      <c r="H82" s="359"/>
+      <c r="I82" s="359"/>
+    </row>
+    <row r="83" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="354"/>
+      <c r="B83" s="355"/>
+      <c r="C83" s="356"/>
+      <c r="D83" s="357"/>
+      <c r="E83" s="358"/>
+      <c r="F83" s="357"/>
+      <c r="G83" s="359"/>
+      <c r="H83" s="359"/>
+      <c r="I83" s="359"/>
+    </row>
+    <row r="84" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84" s="360"/>
+      <c r="B84" s="361" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" s="356"/>
+      <c r="D84" s="360"/>
+      <c r="E84" s="360"/>
+      <c r="F84" s="360"/>
+      <c r="G84" s="360"/>
+      <c r="H84" s="362">
+        <f>SUM(H79:H83)</f>
+        <v>57600</v>
+      </c>
+      <c r="I84" s="363">
+        <f>H84+H75</f>
+        <v>276478.56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="390" t="s">
+        <v>114</v>
+      </c>
+      <c r="B85" s="390"/>
+      <c r="C85" s="390"/>
+      <c r="D85" s="390"/>
+      <c r="E85" s="390"/>
+      <c r="F85" s="390"/>
+      <c r="G85" s="390"/>
+      <c r="H85" s="390"/>
+      <c r="I85" s="390"/>
+    </row>
+    <row r="86" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" s="391" t="s">
+        <v>96</v>
+      </c>
+      <c r="B86" s="391" t="s">
+        <v>76</v>
+      </c>
+      <c r="C86" s="391" t="s">
+        <v>77</v>
+      </c>
+      <c r="D86" s="391" t="s">
+        <v>103</v>
+      </c>
+      <c r="E86" s="391"/>
+      <c r="F86" s="391"/>
+      <c r="G86" s="392" t="s">
+        <v>79</v>
+      </c>
+      <c r="H86" s="347" t="s">
+        <v>80</v>
+      </c>
+      <c r="I86" s="391" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="391"/>
+      <c r="B87" s="391"/>
+      <c r="C87" s="391"/>
+      <c r="D87" s="348" t="s">
+        <v>105</v>
+      </c>
+      <c r="E87" s="347" t="s">
+        <v>106</v>
+      </c>
+      <c r="F87" s="347" t="s">
+        <v>107</v>
+      </c>
+      <c r="G87" s="392"/>
+      <c r="H87" s="347"/>
+      <c r="I87" s="391"/>
+    </row>
+    <row r="88" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="354"/>
+      <c r="B88" s="364"/>
+      <c r="C88" s="356"/>
+      <c r="D88" s="357"/>
+      <c r="E88" s="358"/>
+      <c r="F88" s="357"/>
+      <c r="G88" s="365"/>
+      <c r="H88" s="366"/>
+      <c r="I88" s="367"/>
+    </row>
+    <row r="89" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="354"/>
+      <c r="B89" s="364"/>
+      <c r="C89" s="356"/>
+      <c r="D89" s="357"/>
+      <c r="E89" s="358"/>
+      <c r="F89" s="357"/>
+      <c r="G89" s="365"/>
+      <c r="H89" s="366"/>
+      <c r="I89" s="367"/>
+    </row>
+    <row r="90" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="356"/>
+      <c r="B90" s="360" t="s">
+        <v>111</v>
+      </c>
+      <c r="C90" s="360"/>
+      <c r="D90" s="357"/>
+      <c r="E90" s="357"/>
+      <c r="F90" s="357"/>
+      <c r="G90" s="357"/>
+      <c r="H90" s="368">
+        <f>G90*F90</f>
+        <v>0</v>
+      </c>
+      <c r="I90" s="362">
+        <f>I84+H90</f>
+        <v>276478.56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" s="360"/>
+      <c r="B91" s="361" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" s="361"/>
+      <c r="D91" s="361"/>
+      <c r="E91" s="361"/>
+      <c r="F91" s="361"/>
+      <c r="G91" s="361"/>
+      <c r="H91" s="368"/>
+      <c r="I91" s="362">
+        <f>I90</f>
+        <v>276478.56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" s="388" t="s">
+        <v>116</v>
+      </c>
+      <c r="B92" s="388"/>
+      <c r="C92" s="360"/>
+      <c r="D92" s="369">
         <v>0.25</v>
       </c>
-      <c r="E62" s="406"/>
-      <c r="F62" s="406"/>
-      <c r="G62" s="403"/>
-      <c r="H62" s="403"/>
-      <c r="I62" s="408">
-        <f>I61*D62</f>
-        <v>109450</v>
+      <c r="E92" s="360"/>
+      <c r="F92" s="360"/>
+      <c r="G92" s="357"/>
+      <c r="H92" s="357"/>
+      <c r="I92" s="362">
+        <f>I91*D92</f>
+        <v>69119.64</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="423" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="417" t="s">
+    <row r="93" spans="1:10" s="375" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="389" t="s">
+        <v>117</v>
+      </c>
+      <c r="B93" s="389"/>
+      <c r="C93" s="370"/>
+      <c r="D93" s="371"/>
+      <c r="E93" s="370"/>
+      <c r="F93" s="370"/>
+      <c r="G93" s="372"/>
+      <c r="H93" s="372"/>
+      <c r="I93" s="373">
+        <f>SUM(I91:I92)</f>
+        <v>345598.2</v>
+      </c>
+      <c r="J93" s="374"/>
+    </row>
+    <row r="94" spans="1:10" s="375" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="400"/>
+      <c r="B94" s="400"/>
+      <c r="C94" s="401"/>
+      <c r="D94" s="402"/>
+      <c r="E94" s="401"/>
+      <c r="F94" s="401"/>
+      <c r="G94" s="403"/>
+      <c r="H94" s="403"/>
+      <c r="I94" s="404"/>
+      <c r="J94" s="374"/>
+    </row>
+    <row r="95" spans="1:10" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="328" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" s="329">
+        <v>45245</v>
+      </c>
+      <c r="C95" s="330"/>
+      <c r="D95" s="330"/>
+      <c r="E95" s="330"/>
+      <c r="F95" s="330"/>
+      <c r="G95" s="330"/>
+      <c r="H95" s="330"/>
+      <c r="I95" s="330"/>
+    </row>
+    <row r="96" spans="1:10" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" s="332" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96" s="330"/>
+      <c r="D96" s="330"/>
+      <c r="E96" s="330"/>
+      <c r="F96" s="330"/>
+      <c r="G96" s="330"/>
+    </row>
+    <row r="97" spans="1:13" s="331" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A97" s="332"/>
+      <c r="B97" s="332"/>
+      <c r="C97" s="395"/>
+      <c r="D97" s="396"/>
+      <c r="E97" s="396"/>
+      <c r="F97" s="396"/>
+      <c r="G97" s="396"/>
+      <c r="H97" s="330"/>
+      <c r="I97" s="333"/>
+      <c r="L97" s="334"/>
+      <c r="M97" s="335"/>
+    </row>
+    <row r="98" spans="1:13" s="331" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="397" t="s">
+        <v>134</v>
+      </c>
+      <c r="B98" s="397"/>
+      <c r="C98" s="397"/>
+      <c r="D98" s="397"/>
+      <c r="E98" s="397"/>
+      <c r="F98" s="397"/>
+      <c r="G98" s="397"/>
+      <c r="H98" s="397"/>
+      <c r="I98" s="397"/>
+      <c r="L98" s="334"/>
+      <c r="M98" s="335"/>
+    </row>
+    <row r="99" spans="1:13" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="393" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99" s="393" t="s">
+        <v>76</v>
+      </c>
+      <c r="C99" s="393" t="s">
+        <v>77</v>
+      </c>
+      <c r="D99" s="393" t="s">
+        <v>103</v>
+      </c>
+      <c r="E99" s="393"/>
+      <c r="F99" s="393"/>
+      <c r="G99" s="398" t="s">
+        <v>79</v>
+      </c>
+      <c r="H99" s="393" t="s">
+        <v>80</v>
+      </c>
+      <c r="I99" s="393" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="393"/>
+      <c r="B100" s="393"/>
+      <c r="C100" s="393"/>
+      <c r="D100" s="337" t="s">
+        <v>105</v>
+      </c>
+      <c r="E100" s="336" t="s">
+        <v>106</v>
+      </c>
+      <c r="F100" s="336" t="s">
+        <v>107</v>
+      </c>
+      <c r="G100" s="398"/>
+      <c r="H100" s="393"/>
+      <c r="I100" s="393"/>
+    </row>
+    <row r="101" spans="1:13" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A101" s="390" t="s">
+        <v>108</v>
+      </c>
+      <c r="B101" s="390"/>
+      <c r="C101" s="390"/>
+      <c r="D101" s="390"/>
+      <c r="E101" s="390"/>
+      <c r="F101" s="390"/>
+      <c r="G101" s="390"/>
+      <c r="H101" s="390"/>
+      <c r="I101" s="390"/>
+    </row>
+    <row r="102" spans="1:13" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="338">
+        <v>1</v>
+      </c>
+      <c r="B102" s="327" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102" s="338" t="s">
+        <v>121</v>
+      </c>
+      <c r="D102" s="339">
+        <v>14</v>
+      </c>
+      <c r="E102" s="339"/>
+      <c r="F102" s="339">
+        <v>14</v>
+      </c>
+      <c r="G102" s="340">
+        <v>4300</v>
+      </c>
+      <c r="H102" s="340">
+        <f>G102*F102</f>
+        <v>60200</v>
+      </c>
+      <c r="I102" s="341"/>
+      <c r="J102" s="334"/>
+      <c r="K102" s="334"/>
+    </row>
+    <row r="103" spans="1:13" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="338"/>
+      <c r="B103" s="327"/>
+      <c r="C103" s="338"/>
+      <c r="D103" s="339"/>
+      <c r="E103" s="339"/>
+      <c r="F103" s="339"/>
+      <c r="G103" s="340"/>
+      <c r="H103" s="340"/>
+      <c r="I103" s="341"/>
+      <c r="J103" s="334"/>
+      <c r="K103" s="334"/>
+    </row>
+    <row r="104" spans="1:13" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="338"/>
+      <c r="B104" s="327"/>
+      <c r="C104" s="338"/>
+      <c r="D104" s="339"/>
+      <c r="E104" s="339"/>
+      <c r="F104" s="339"/>
+      <c r="G104" s="340"/>
+      <c r="H104" s="340"/>
+      <c r="I104" s="341"/>
+      <c r="J104" s="334"/>
+      <c r="K104" s="334"/>
+    </row>
+    <row r="105" spans="1:13" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105" s="342"/>
+      <c r="B105" s="343" t="s">
+        <v>111</v>
+      </c>
+      <c r="C105" s="338"/>
+      <c r="D105" s="338"/>
+      <c r="E105" s="344"/>
+      <c r="F105" s="342"/>
+      <c r="G105" s="342"/>
+      <c r="H105" s="340">
+        <f>SUM(H102:H104)</f>
+        <v>60200</v>
+      </c>
+      <c r="I105" s="345">
+        <f>H105</f>
+        <v>60200</v>
+      </c>
+      <c r="K105" s="346"/>
+    </row>
+    <row r="106" spans="1:13" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106" s="394" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" s="394"/>
+      <c r="C106" s="394"/>
+      <c r="D106" s="394"/>
+      <c r="E106" s="394"/>
+      <c r="F106" s="394"/>
+      <c r="G106" s="394"/>
+      <c r="H106" s="394"/>
+      <c r="I106" s="394"/>
+    </row>
+    <row r="107" spans="1:13" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="391" t="s">
+        <v>96</v>
+      </c>
+      <c r="B107" s="391" t="s">
+        <v>76</v>
+      </c>
+      <c r="C107" s="391" t="s">
+        <v>77</v>
+      </c>
+      <c r="D107" s="391" t="s">
+        <v>103</v>
+      </c>
+      <c r="E107" s="391"/>
+      <c r="F107" s="391"/>
+      <c r="G107" s="392" t="s">
+        <v>79</v>
+      </c>
+      <c r="H107" s="347" t="s">
+        <v>80</v>
+      </c>
+      <c r="I107" s="391" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A108" s="391"/>
+      <c r="B108" s="391"/>
+      <c r="C108" s="391"/>
+      <c r="D108" s="348" t="s">
+        <v>105</v>
+      </c>
+      <c r="E108" s="347" t="s">
+        <v>106</v>
+      </c>
+      <c r="F108" s="347" t="s">
+        <v>107</v>
+      </c>
+      <c r="G108" s="392"/>
+      <c r="H108" s="347"/>
+      <c r="I108" s="391"/>
+    </row>
+    <row r="109" spans="1:13" s="352" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A109" s="349">
+        <v>1</v>
+      </c>
+      <c r="B109" s="399" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="417"/>
-      <c r="C63" s="418"/>
-      <c r="D63" s="419"/>
-      <c r="E63" s="418"/>
-      <c r="F63" s="418"/>
-      <c r="G63" s="420"/>
-      <c r="H63" s="420"/>
-      <c r="I63" s="421">
-        <f>SUM(I61:I62)</f>
-        <v>547250</v>
-      </c>
-      <c r="J63" s="422"/>
+      <c r="C109" s="338" t="s">
+        <v>121</v>
+      </c>
+      <c r="D109" s="339">
+        <v>14</v>
+      </c>
+      <c r="E109" s="339"/>
+      <c r="F109" s="339">
+        <v>14</v>
+      </c>
+      <c r="G109" s="351">
+        <v>1000</v>
+      </c>
+      <c r="H109" s="351">
+        <f>F109*G109</f>
+        <v>14000</v>
+      </c>
+      <c r="I109" s="351"/>
     </row>
-    <row r="65" spans="1:13" s="368" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="365" t="s">
-        <v>113</v>
-      </c>
-      <c r="B65" s="366">
-        <v>45224</v>
-      </c>
-      <c r="C65" s="367"/>
-      <c r="D65" s="367"/>
-      <c r="E65" s="367"/>
-      <c r="F65" s="367"/>
-      <c r="G65" s="367"/>
-      <c r="H65" s="367"/>
-      <c r="I65" s="367"/>
+    <row r="110" spans="1:13" s="352" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A110" s="349"/>
+      <c r="B110" s="399"/>
+      <c r="C110" s="338"/>
+      <c r="D110" s="339"/>
+      <c r="E110" s="353"/>
+      <c r="F110" s="339"/>
+      <c r="G110" s="351"/>
+      <c r="H110" s="351"/>
+      <c r="I110" s="351"/>
     </row>
-    <row r="66" spans="1:13" s="368" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="365" t="s">
+    <row r="111" spans="1:13" s="352" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A111" s="349"/>
+      <c r="B111" s="399"/>
+      <c r="C111" s="338"/>
+      <c r="D111" s="339"/>
+      <c r="E111" s="353"/>
+      <c r="F111" s="339"/>
+      <c r="G111" s="351"/>
+      <c r="H111" s="351"/>
+      <c r="I111" s="351"/>
+    </row>
+    <row r="112" spans="1:13" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112" s="354"/>
+      <c r="B112" s="355"/>
+      <c r="C112" s="356"/>
+      <c r="D112" s="357"/>
+      <c r="E112" s="358"/>
+      <c r="F112" s="357"/>
+      <c r="G112" s="359"/>
+      <c r="H112" s="359"/>
+      <c r="I112" s="359"/>
+    </row>
+    <row r="113" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A113" s="354"/>
+      <c r="B113" s="355"/>
+      <c r="C113" s="356"/>
+      <c r="D113" s="357"/>
+      <c r="E113" s="358"/>
+      <c r="F113" s="357"/>
+      <c r="G113" s="359"/>
+      <c r="H113" s="359"/>
+      <c r="I113" s="359"/>
+    </row>
+    <row r="114" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A114" s="360"/>
+      <c r="B114" s="361" t="s">
+        <v>111</v>
+      </c>
+      <c r="C114" s="356"/>
+      <c r="D114" s="360"/>
+      <c r="E114" s="360"/>
+      <c r="F114" s="360"/>
+      <c r="G114" s="360"/>
+      <c r="H114" s="362">
+        <f>SUM(H109:H113)</f>
+        <v>14000</v>
+      </c>
+      <c r="I114" s="363">
+        <f>H114+H105</f>
+        <v>74200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A115" s="390" t="s">
         <v>114</v>
       </c>
-      <c r="B66" s="369" t="s">
+      <c r="B115" s="390"/>
+      <c r="C115" s="390"/>
+      <c r="D115" s="390"/>
+      <c r="E115" s="390"/>
+      <c r="F115" s="390"/>
+      <c r="G115" s="390"/>
+      <c r="H115" s="390"/>
+      <c r="I115" s="390"/>
+    </row>
+    <row r="116" spans="1:10" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="391" t="s">
+        <v>96</v>
+      </c>
+      <c r="B116" s="391" t="s">
+        <v>76</v>
+      </c>
+      <c r="C116" s="391" t="s">
+        <v>77</v>
+      </c>
+      <c r="D116" s="391" t="s">
+        <v>103</v>
+      </c>
+      <c r="E116" s="391"/>
+      <c r="F116" s="391"/>
+      <c r="G116" s="392" t="s">
+        <v>79</v>
+      </c>
+      <c r="H116" s="393" t="s">
+        <v>80</v>
+      </c>
+      <c r="I116" s="391" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="331" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="391"/>
+      <c r="B117" s="391"/>
+      <c r="C117" s="391"/>
+      <c r="D117" s="348" t="s">
+        <v>105</v>
+      </c>
+      <c r="E117" s="347" t="s">
+        <v>106</v>
+      </c>
+      <c r="F117" s="347" t="s">
+        <v>107</v>
+      </c>
+      <c r="G117" s="392"/>
+      <c r="H117" s="393"/>
+      <c r="I117" s="391"/>
+    </row>
+    <row r="118" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A118" s="354"/>
+      <c r="B118" s="364"/>
+      <c r="C118" s="356"/>
+      <c r="D118" s="357"/>
+      <c r="E118" s="358"/>
+      <c r="F118" s="357"/>
+      <c r="G118" s="365"/>
+      <c r="H118" s="366"/>
+      <c r="I118" s="367"/>
+    </row>
+    <row r="119" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A119" s="354"/>
+      <c r="B119" s="364"/>
+      <c r="C119" s="356"/>
+      <c r="D119" s="357"/>
+      <c r="E119" s="358"/>
+      <c r="F119" s="357"/>
+      <c r="G119" s="365"/>
+      <c r="H119" s="366"/>
+      <c r="I119" s="367"/>
+    </row>
+    <row r="120" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A120" s="356"/>
+      <c r="B120" s="360" t="s">
+        <v>111</v>
+      </c>
+      <c r="C120" s="360"/>
+      <c r="D120" s="357"/>
+      <c r="E120" s="357"/>
+      <c r="F120" s="357"/>
+      <c r="G120" s="357"/>
+      <c r="H120" s="368">
+        <f>G120*F120</f>
+        <v>0</v>
+      </c>
+      <c r="I120" s="362">
+        <f>I114+H120</f>
+        <v>74200</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A121" s="360"/>
+      <c r="B121" s="361" t="s">
         <v>115</v>
       </c>
-      <c r="C66" s="367"/>
-      <c r="D66" s="367"/>
-      <c r="E66" s="367"/>
-      <c r="F66" s="367"/>
-      <c r="G66" s="367"/>
+      <c r="C121" s="361"/>
+      <c r="D121" s="361"/>
+      <c r="E121" s="361"/>
+      <c r="F121" s="361"/>
+      <c r="G121" s="361"/>
+      <c r="H121" s="368"/>
+      <c r="I121" s="362">
+        <f>I120</f>
+        <v>74200</v>
+      </c>
     </row>
-    <row r="67" spans="1:13" s="368" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="365" t="s">
-        <v>133</v>
-      </c>
-      <c r="B67" s="369"/>
-      <c r="C67" s="367"/>
-      <c r="D67" s="367"/>
-      <c r="E67" s="367"/>
-      <c r="F67" s="367"/>
-      <c r="G67" s="367"/>
+    <row r="122" spans="1:10" s="331" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A122" s="388" t="s">
+        <v>116</v>
+      </c>
+      <c r="B122" s="388"/>
+      <c r="C122" s="360"/>
+      <c r="D122" s="369">
+        <v>0.25</v>
+      </c>
+      <c r="E122" s="360"/>
+      <c r="F122" s="360"/>
+      <c r="G122" s="357"/>
+      <c r="H122" s="357"/>
+      <c r="I122" s="362">
+        <f>I121*D122</f>
+        <v>18550</v>
+      </c>
     </row>
-    <row r="68" spans="1:13" s="368" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="369"/>
-      <c r="B68" s="369"/>
-      <c r="C68" s="370"/>
-      <c r="D68" s="371"/>
-      <c r="E68" s="371"/>
-      <c r="F68" s="371"/>
-      <c r="G68" s="371"/>
-      <c r="H68" s="367"/>
-      <c r="I68" s="372"/>
-      <c r="L68" s="373"/>
-      <c r="M68" s="374"/>
+    <row r="123" spans="1:10" s="375" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A123" s="389" t="s">
+        <v>117</v>
+      </c>
+      <c r="B123" s="389"/>
+      <c r="C123" s="370"/>
+      <c r="D123" s="371"/>
+      <c r="E123" s="370"/>
+      <c r="F123" s="370"/>
+      <c r="G123" s="372"/>
+      <c r="H123" s="372"/>
+      <c r="I123" s="373">
+        <f>SUM(I121:I122)</f>
+        <v>92750</v>
+      </c>
+      <c r="J123" s="374"/>
     </row>
-    <row r="69" spans="1:13" s="368" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="375" t="s">
-        <v>134</v>
-      </c>
-      <c r="B69" s="375"/>
-      <c r="C69" s="375"/>
-      <c r="D69" s="375"/>
-      <c r="E69" s="375"/>
-      <c r="F69" s="375"/>
-      <c r="G69" s="375"/>
-      <c r="H69" s="375"/>
-      <c r="I69" s="375"/>
-      <c r="L69" s="373"/>
-      <c r="M69" s="374"/>
-    </row>
-    <row r="70" spans="1:13" s="368" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="376" t="s">
-        <v>100</v>
-      </c>
-      <c r="B70" s="376" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70" s="376" t="s">
-        <v>77</v>
-      </c>
-      <c r="D70" s="376" t="s">
-        <v>118</v>
-      </c>
-      <c r="E70" s="376"/>
-      <c r="F70" s="376"/>
-      <c r="G70" s="377" t="s">
-        <v>79</v>
-      </c>
-      <c r="H70" s="376" t="s">
-        <v>80</v>
-      </c>
-      <c r="I70" s="376" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" s="368" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="376"/>
-      <c r="B71" s="376"/>
-      <c r="C71" s="376"/>
-      <c r="D71" s="378" t="s">
-        <v>120</v>
-      </c>
-      <c r="E71" s="379" t="s">
-        <v>121</v>
-      </c>
-      <c r="F71" s="379" t="s">
-        <v>122</v>
-      </c>
-      <c r="G71" s="377"/>
-      <c r="H71" s="376"/>
-      <c r="I71" s="376"/>
-    </row>
-    <row r="72" spans="1:13" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="380" t="s">
+    <row r="124" spans="1:10" s="375" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="389" t="s">
         <v>123</v>
       </c>
-      <c r="B72" s="380"/>
-      <c r="C72" s="380"/>
-      <c r="D72" s="380"/>
-      <c r="E72" s="380"/>
-      <c r="F72" s="380"/>
-      <c r="G72" s="380"/>
-      <c r="H72" s="380"/>
-      <c r="I72" s="380"/>
-    </row>
-    <row r="73" spans="1:13" s="368" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="381">
-        <v>1</v>
-      </c>
-      <c r="B73" s="358" t="s">
-        <v>135</v>
-      </c>
-      <c r="C73" s="381" t="s">
-        <v>136</v>
-      </c>
-      <c r="D73" s="382">
-        <v>14</v>
-      </c>
-      <c r="E73" s="382"/>
-      <c r="F73" s="382">
-        <v>14</v>
-      </c>
-      <c r="G73" s="383">
-        <v>7500</v>
-      </c>
-      <c r="H73" s="383">
-        <f>G73*F73</f>
-        <v>105000</v>
-      </c>
-      <c r="I73" s="384"/>
-      <c r="J73" s="373"/>
-      <c r="K73" s="373"/>
-    </row>
-    <row r="74" spans="1:13" s="368" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="381"/>
-      <c r="B74" s="358"/>
-      <c r="C74" s="381"/>
-      <c r="D74" s="382"/>
-      <c r="E74" s="382"/>
-      <c r="F74" s="382"/>
-      <c r="G74" s="383"/>
-      <c r="H74" s="383">
-        <f t="shared" ref="H74:H75" si="1">G74*F74</f>
-        <v>0</v>
-      </c>
-      <c r="I74" s="384"/>
-      <c r="J74" s="373"/>
-      <c r="K74" s="373"/>
-    </row>
-    <row r="75" spans="1:13" s="368" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="381"/>
-      <c r="B75" s="358"/>
-      <c r="C75" s="381"/>
-      <c r="D75" s="382"/>
-      <c r="E75" s="382"/>
-      <c r="F75" s="382"/>
-      <c r="G75" s="383"/>
-      <c r="H75" s="383">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I75" s="384"/>
-      <c r="J75" s="373"/>
-      <c r="K75" s="373"/>
-    </row>
-    <row r="76" spans="1:13" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="385"/>
-      <c r="B76" s="386" t="s">
-        <v>126</v>
-      </c>
-      <c r="C76" s="381"/>
-      <c r="D76" s="381"/>
-      <c r="E76" s="387"/>
-      <c r="F76" s="385"/>
-      <c r="G76" s="385"/>
-      <c r="H76" s="383">
-        <v>105000</v>
-      </c>
-      <c r="I76" s="388">
-        <f>H76</f>
-        <v>105000</v>
-      </c>
-      <c r="K76" s="389"/>
-    </row>
-    <row r="77" spans="1:13" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="390" t="s">
-        <v>127</v>
-      </c>
-      <c r="B77" s="390"/>
-      <c r="C77" s="390"/>
-      <c r="D77" s="390"/>
-      <c r="E77" s="390"/>
-      <c r="F77" s="390"/>
-      <c r="G77" s="390"/>
-      <c r="H77" s="390"/>
-      <c r="I77" s="390"/>
-    </row>
-    <row r="78" spans="1:13" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="391" t="s">
-        <v>100</v>
-      </c>
-      <c r="B78" s="391" t="s">
-        <v>76</v>
-      </c>
-      <c r="C78" s="391" t="s">
-        <v>77</v>
-      </c>
-      <c r="D78" s="391" t="s">
-        <v>118</v>
-      </c>
-      <c r="E78" s="391"/>
-      <c r="F78" s="391"/>
-      <c r="G78" s="392" t="s">
-        <v>79</v>
-      </c>
-      <c r="H78" s="393" t="s">
-        <v>80</v>
-      </c>
-      <c r="I78" s="391" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="391"/>
-      <c r="B79" s="391"/>
-      <c r="C79" s="391"/>
-      <c r="D79" s="394" t="s">
-        <v>120</v>
-      </c>
-      <c r="E79" s="393" t="s">
-        <v>121</v>
-      </c>
-      <c r="F79" s="393" t="s">
-        <v>122</v>
-      </c>
-      <c r="G79" s="392"/>
-      <c r="H79" s="393"/>
-      <c r="I79" s="391"/>
-    </row>
-    <row r="80" spans="1:13" s="398" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="395">
-        <v>1</v>
-      </c>
-      <c r="B80" s="396" t="s">
-        <v>137</v>
-      </c>
-      <c r="C80" s="381" t="s">
-        <v>136</v>
-      </c>
-      <c r="D80" s="382">
-        <v>14</v>
-      </c>
-      <c r="E80" s="382"/>
-      <c r="F80" s="382">
-        <v>14</v>
-      </c>
-      <c r="G80" s="397">
-        <v>150</v>
-      </c>
-      <c r="H80" s="397">
-        <f>G80*F80</f>
-        <v>2100</v>
-      </c>
-      <c r="I80" s="397"/>
-    </row>
-    <row r="81" spans="1:10" s="398" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="395"/>
-      <c r="B81" s="396"/>
-      <c r="C81" s="381"/>
-      <c r="D81" s="382"/>
-      <c r="E81" s="399"/>
-      <c r="F81" s="382"/>
-      <c r="G81" s="397"/>
-      <c r="H81" s="397">
-        <f>G81*F81</f>
-        <v>0</v>
-      </c>
-      <c r="I81" s="397"/>
-    </row>
-    <row r="82" spans="1:10" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="400"/>
-      <c r="B82" s="401"/>
-      <c r="C82" s="402"/>
-      <c r="D82" s="403"/>
-      <c r="E82" s="404"/>
-      <c r="F82" s="403"/>
-      <c r="G82" s="405"/>
-      <c r="H82" s="405"/>
-      <c r="I82" s="405"/>
-    </row>
-    <row r="83" spans="1:10" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="400"/>
-      <c r="B83" s="401"/>
-      <c r="C83" s="402"/>
-      <c r="D83" s="403"/>
-      <c r="E83" s="404"/>
-      <c r="F83" s="403"/>
-      <c r="G83" s="405"/>
-      <c r="H83" s="405"/>
-      <c r="I83" s="405"/>
-    </row>
-    <row r="84" spans="1:10" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="400"/>
-      <c r="B84" s="401"/>
-      <c r="C84" s="402"/>
-      <c r="D84" s="403"/>
-      <c r="E84" s="404"/>
-      <c r="F84" s="403"/>
-      <c r="G84" s="405"/>
-      <c r="H84" s="405"/>
-      <c r="I84" s="405"/>
-    </row>
-    <row r="85" spans="1:10" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="406"/>
-      <c r="B85" s="407" t="s">
-        <v>126</v>
-      </c>
-      <c r="C85" s="402"/>
-      <c r="D85" s="406"/>
-      <c r="E85" s="406"/>
-      <c r="F85" s="406"/>
-      <c r="G85" s="406"/>
-      <c r="H85" s="408">
-        <f>SUM(H80:H84)</f>
-        <v>2100</v>
-      </c>
-      <c r="I85" s="409">
-        <f>H85+H76</f>
-        <v>107100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="380" t="s">
-        <v>129</v>
-      </c>
-      <c r="B86" s="380"/>
-      <c r="C86" s="380"/>
-      <c r="D86" s="380"/>
-      <c r="E86" s="380"/>
-      <c r="F86" s="380"/>
-      <c r="G86" s="380"/>
-      <c r="H86" s="380"/>
-      <c r="I86" s="380"/>
-    </row>
-    <row r="87" spans="1:10" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="391" t="s">
-        <v>100</v>
-      </c>
-      <c r="B87" s="391" t="s">
-        <v>76</v>
-      </c>
-      <c r="C87" s="391" t="s">
-        <v>77</v>
-      </c>
-      <c r="D87" s="391" t="s">
-        <v>118</v>
-      </c>
-      <c r="E87" s="391"/>
-      <c r="F87" s="391"/>
-      <c r="G87" s="392" t="s">
-        <v>79</v>
-      </c>
-      <c r="H87" s="393" t="s">
-        <v>80</v>
-      </c>
-      <c r="I87" s="391" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="391"/>
-      <c r="B88" s="391"/>
-      <c r="C88" s="391"/>
-      <c r="D88" s="394" t="s">
-        <v>120</v>
-      </c>
-      <c r="E88" s="393" t="s">
-        <v>121</v>
-      </c>
-      <c r="F88" s="393" t="s">
-        <v>122</v>
-      </c>
-      <c r="G88" s="392"/>
-      <c r="H88" s="393"/>
-      <c r="I88" s="391"/>
-    </row>
-    <row r="89" spans="1:10" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="400"/>
-      <c r="B89" s="410"/>
-      <c r="C89" s="402"/>
-      <c r="D89" s="403"/>
-      <c r="E89" s="404"/>
-      <c r="F89" s="403"/>
-      <c r="G89" s="411"/>
-      <c r="H89" s="412"/>
-      <c r="I89" s="413"/>
-    </row>
-    <row r="90" spans="1:10" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A90" s="400"/>
-      <c r="B90" s="410"/>
-      <c r="C90" s="402"/>
-      <c r="D90" s="403"/>
-      <c r="E90" s="404"/>
-      <c r="F90" s="403"/>
-      <c r="G90" s="411"/>
-      <c r="H90" s="412"/>
-      <c r="I90" s="413"/>
-    </row>
-    <row r="91" spans="1:10" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A91" s="402"/>
-      <c r="B91" s="406" t="s">
-        <v>126</v>
-      </c>
-      <c r="C91" s="406"/>
-      <c r="D91" s="403"/>
-      <c r="E91" s="403"/>
-      <c r="F91" s="403"/>
-      <c r="G91" s="403"/>
-      <c r="H91" s="414"/>
-      <c r="I91" s="408">
-        <f>I85+I89</f>
-        <v>107100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="406"/>
-      <c r="B92" s="407" t="s">
-        <v>130</v>
-      </c>
-      <c r="C92" s="407"/>
-      <c r="D92" s="407"/>
-      <c r="E92" s="407"/>
-      <c r="F92" s="407"/>
-      <c r="G92" s="407"/>
-      <c r="H92" s="414"/>
-      <c r="I92" s="408">
-        <f>I91</f>
-        <v>107100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" s="368" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93" s="415" t="s">
-        <v>131</v>
-      </c>
-      <c r="B93" s="415"/>
-      <c r="C93" s="406"/>
-      <c r="D93" s="416">
-        <v>0.25</v>
-      </c>
-      <c r="E93" s="406"/>
-      <c r="F93" s="406"/>
-      <c r="G93" s="403"/>
-      <c r="H93" s="403"/>
-      <c r="I93" s="408">
-        <f>I92*D93</f>
-        <v>26775</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" s="423" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="417" t="s">
-        <v>132</v>
-      </c>
-      <c r="B94" s="417"/>
-      <c r="C94" s="418"/>
-      <c r="D94" s="419"/>
-      <c r="E94" s="418"/>
-      <c r="F94" s="418"/>
-      <c r="G94" s="420"/>
-      <c r="H94" s="420"/>
-      <c r="I94" s="421">
-        <f>SUM(I92:I93)</f>
-        <v>133875</v>
-      </c>
-      <c r="J94" s="422"/>
-    </row>
-    <row r="96" spans="1:10" s="423" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="417" t="s">
-        <v>138</v>
-      </c>
-      <c r="B96" s="417"/>
-      <c r="C96" s="418"/>
-      <c r="D96" s="419"/>
-      <c r="E96" s="418"/>
-      <c r="F96" s="418"/>
-      <c r="G96" s="420"/>
-      <c r="H96" s="420"/>
-      <c r="I96" s="421">
-        <f>I94+I63+H31+H17</f>
-        <v>5557700</v>
-      </c>
-      <c r="J96" s="422"/>
+      <c r="B124" s="389"/>
+      <c r="C124" s="370"/>
+      <c r="D124" s="371"/>
+      <c r="E124" s="370"/>
+      <c r="F124" s="370"/>
+      <c r="G124" s="372"/>
+      <c r="H124" s="372"/>
+      <c r="I124" s="373">
+        <f>I63+I32+I93+I123</f>
+        <v>1119473.2</v>
+      </c>
+      <c r="J124" s="374"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A86:I86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="A72:I72"/>
-    <mergeCell ref="A77:I77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="I56:I57"/>
+  <mergeCells count="106">
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A115:I115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="A101:I101"/>
+    <mergeCell ref="A106:I106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="A98:I98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A85:I85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="A71:I71"/>
+    <mergeCell ref="A76:I76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
     <mergeCell ref="I39:I40"/>
     <mergeCell ref="A41:I41"/>
     <mergeCell ref="A46:I46"/>
@@ -23334,20 +23875,22 @@
     <mergeCell ref="D47:F47"/>
     <mergeCell ref="G47:G48"/>
     <mergeCell ref="I47:I48"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="C67:G67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
